--- a/1-data/CDOM/EEM_Template/SampleLog.xlsx
+++ b/1-data/CDOM/EEM_Template/SampleLog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl.sharepoint.com/teams/MCRLMSL-5LaboratoryCoordination/Shared Documents/Aqualog (UV VIS) MSL5-223/EEM_Template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olou646\tempest-exp-feom-ConnorSULI\1-data\CDOM\EEM_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="394" documentId="8_{54E0EEB1-B677-4F73-9A23-F4DF571E6005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4FD5468-DA02-4FE7-91D2-AFCEF34F6542}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD35D7-7847-4274-A004-B48F46F63815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="198">
   <si>
     <t>index</t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t>EEM file name</t>
-  </si>
-  <si>
-    <t>Sample 1</t>
-  </si>
-  <si>
-    <t>Sample 2</t>
   </si>
   <si>
     <t>EEM Blank</t>
@@ -128,28 +122,559 @@
     <t>Dilution Factor (Decimal Format; e.g. 0.5)</t>
   </si>
   <si>
-    <t>DI17Jun22 1s (01) - Waterfall Plot Blank.dat</t>
-  </si>
-  <si>
-    <t>DI17Jun22 05s (01) - Waterfall Plot Blank.dat</t>
-  </si>
-  <si>
-    <t>BSLE0046C 1s (01) - Abs Spectra Graphs.dat</t>
-  </si>
-  <si>
-    <t>BSLE0057A 05s (01) - Abs Spectra Graphs.dat</t>
-  </si>
-  <si>
-    <t>BSLE0046C</t>
-  </si>
-  <si>
-    <t>BSLE0057A</t>
-  </si>
-  <si>
     <t>1s</t>
   </si>
   <si>
-    <t>05s</t>
+    <t>AW1.01</t>
+  </si>
+  <si>
+    <t>AW1.45</t>
+  </si>
+  <si>
+    <t>AW1.01.1</t>
+  </si>
+  <si>
+    <t>AW1.1</t>
+  </si>
+  <si>
+    <t>AW1.1.1</t>
+  </si>
+  <si>
+    <t>AW1.ASW</t>
+  </si>
+  <si>
+    <t>AW1.DI</t>
+  </si>
+  <si>
+    <t>AW1.DI.1s</t>
+  </si>
+  <si>
+    <t>AW1.ASW.1s</t>
+  </si>
+  <si>
+    <t>AW1.45.1s</t>
+  </si>
+  <si>
+    <t>AW1.1.1s</t>
+  </si>
+  <si>
+    <t>AW1.1.01s</t>
+  </si>
+  <si>
+    <t>AW1.01.1s</t>
+  </si>
+  <si>
+    <t>AW1.01.01s</t>
+  </si>
+  <si>
+    <t>AW2.01</t>
+  </si>
+  <si>
+    <t>AW2.01.1</t>
+  </si>
+  <si>
+    <t>AW2.01.01s</t>
+  </si>
+  <si>
+    <t>AW2.01.2s</t>
+  </si>
+  <si>
+    <t>AW2.1</t>
+  </si>
+  <si>
+    <t>AW2.1.2s</t>
+  </si>
+  <si>
+    <t>AW2.45</t>
+  </si>
+  <si>
+    <t>AW2.45.1</t>
+  </si>
+  <si>
+    <t>AW2.45.1s</t>
+  </si>
+  <si>
+    <t>AW2.45.2s</t>
+  </si>
+  <si>
+    <t>AW2.ASW</t>
+  </si>
+  <si>
+    <t>AW2.DI</t>
+  </si>
+  <si>
+    <t>AW2.ASW.1s</t>
+  </si>
+  <si>
+    <t>AW2.DI.1s</t>
+  </si>
+  <si>
+    <t>AW3.01</t>
+  </si>
+  <si>
+    <t>AW3.01.01s</t>
+  </si>
+  <si>
+    <t>AW3.01.1</t>
+  </si>
+  <si>
+    <t>AW3.01.2s</t>
+  </si>
+  <si>
+    <t>AW3.1</t>
+  </si>
+  <si>
+    <t>AW3.1.1s</t>
+  </si>
+  <si>
+    <t>AW3.1.1</t>
+  </si>
+  <si>
+    <t>AW3.1.2.2s</t>
+  </si>
+  <si>
+    <t>AW3.45</t>
+  </si>
+  <si>
+    <t>AW3.45.01s</t>
+  </si>
+  <si>
+    <t>AW3.45.1</t>
+  </si>
+  <si>
+    <t>AW3.45.2</t>
+  </si>
+  <si>
+    <t>AW3.45.3.2s</t>
+  </si>
+  <si>
+    <t>AW3.45.2s</t>
+  </si>
+  <si>
+    <t>AW3.45.3</t>
+  </si>
+  <si>
+    <t>AW3.45.4.2s</t>
+  </si>
+  <si>
+    <t>AW3.ASW</t>
+  </si>
+  <si>
+    <t>AW3.DI</t>
+  </si>
+  <si>
+    <t>AW3.ASW.1s</t>
+  </si>
+  <si>
+    <t>AW3.DI.1s</t>
+  </si>
+  <si>
+    <t>AW4.01</t>
+  </si>
+  <si>
+    <t>AW4.01.1.01s</t>
+  </si>
+  <si>
+    <t>AW4.01.1</t>
+  </si>
+  <si>
+    <t>AW4.01.2.2s</t>
+  </si>
+  <si>
+    <t>AW4.1</t>
+  </si>
+  <si>
+    <t>AW4.1.1.01s</t>
+  </si>
+  <si>
+    <t>AW4.1.1</t>
+  </si>
+  <si>
+    <t>AW4.1.2.2s</t>
+  </si>
+  <si>
+    <t>AW4.45</t>
+  </si>
+  <si>
+    <t>AW4.45.2.2s</t>
+  </si>
+  <si>
+    <t>AW4.ASW</t>
+  </si>
+  <si>
+    <t>AW4.ASW.1s</t>
+  </si>
+  <si>
+    <t>AW4.DI</t>
+  </si>
+  <si>
+    <t>AW4.DI.1s</t>
+  </si>
+  <si>
+    <t>AW5.01</t>
+  </si>
+  <si>
+    <t>AW5.01.2.2s</t>
+  </si>
+  <si>
+    <t>AW5.1</t>
+  </si>
+  <si>
+    <t>AW5.1.1.01s</t>
+  </si>
+  <si>
+    <t>AW5.1.1</t>
+  </si>
+  <si>
+    <t>AW5.1.2.2s</t>
+  </si>
+  <si>
+    <t>AW5.45</t>
+  </si>
+  <si>
+    <t>AW5.45.1.01s</t>
+  </si>
+  <si>
+    <t>AW5.45.1</t>
+  </si>
+  <si>
+    <t>AW5.45.2.2s</t>
+  </si>
+  <si>
+    <t>AW5.ASW</t>
+  </si>
+  <si>
+    <t>AW5.ASW.1s</t>
+  </si>
+  <si>
+    <t>AW5.DI</t>
+  </si>
+  <si>
+    <t>AW5.DI.1s</t>
+  </si>
+  <si>
+    <t>OW1.1</t>
+  </si>
+  <si>
+    <t>OW1.01</t>
+  </si>
+  <si>
+    <t>OW1.01.1s</t>
+  </si>
+  <si>
+    <t>OW1.1.01s</t>
+  </si>
+  <si>
+    <t>OW1.45</t>
+  </si>
+  <si>
+    <t>OW1.45.01s</t>
+  </si>
+  <si>
+    <t>OW1.45.1</t>
+  </si>
+  <si>
+    <t>OW1.45.2s</t>
+  </si>
+  <si>
+    <t>OW1.ASW</t>
+  </si>
+  <si>
+    <t>OW1.ASW.1s</t>
+  </si>
+  <si>
+    <t>OW1.DI</t>
+  </si>
+  <si>
+    <t>OW1.DI.1s</t>
+  </si>
+  <si>
+    <t>OW2.01</t>
+  </si>
+  <si>
+    <t>OW2.01.01s</t>
+  </si>
+  <si>
+    <t>OW2.01.1</t>
+  </si>
+  <si>
+    <t>OW2.01.1s</t>
+  </si>
+  <si>
+    <t>OW2.1</t>
+  </si>
+  <si>
+    <t>OW2.1.01s</t>
+  </si>
+  <si>
+    <t>OW2.1.1</t>
+  </si>
+  <si>
+    <t>OW2.1.1s</t>
+  </si>
+  <si>
+    <t>OW2.1.2</t>
+  </si>
+  <si>
+    <t>OW2.1.2s</t>
+  </si>
+  <si>
+    <t>OW2.45</t>
+  </si>
+  <si>
+    <t>OW2.45.1s</t>
+  </si>
+  <si>
+    <t>OW2.ASW</t>
+  </si>
+  <si>
+    <t>OW2.DI</t>
+  </si>
+  <si>
+    <t>OW2.ASW.1s</t>
+  </si>
+  <si>
+    <t>OW2.DI.1s</t>
+  </si>
+  <si>
+    <t>OW2.1.01s (02) - Waterfall Plot Sample.dat")</t>
+  </si>
+  <si>
+    <t>OW2.45.1s (01) - Waterfall Plot Sample.dat")</t>
+  </si>
+  <si>
+    <t>01s</t>
+  </si>
+  <si>
+    <t>2s</t>
+  </si>
+  <si>
+    <t>OW3.01</t>
+  </si>
+  <si>
+    <t>OW3.01.01s</t>
+  </si>
+  <si>
+    <t>OW3.01.1</t>
+  </si>
+  <si>
+    <t>OW3.01.2.2s</t>
+  </si>
+  <si>
+    <t>OW3.45</t>
+  </si>
+  <si>
+    <t>OW3.45.1.01s</t>
+  </si>
+  <si>
+    <t>OW3.45.1</t>
+  </si>
+  <si>
+    <t>OW3.45.2.2s</t>
+  </si>
+  <si>
+    <t>OW3.ASW</t>
+  </si>
+  <si>
+    <t>OW3.ASW.01s</t>
+  </si>
+  <si>
+    <t>OW3.DI</t>
+  </si>
+  <si>
+    <t>OW3.DI.01s</t>
+  </si>
+  <si>
+    <t>OW4.01</t>
+  </si>
+  <si>
+    <t>OW4.01.1.01s</t>
+  </si>
+  <si>
+    <t>OW4.01.1</t>
+  </si>
+  <si>
+    <t>OW4.01.2.2s</t>
+  </si>
+  <si>
+    <t>OW4.1</t>
+  </si>
+  <si>
+    <t>OW4.1.2.2s</t>
+  </si>
+  <si>
+    <t>OW4.45</t>
+  </si>
+  <si>
+    <t>OW4.45.1.01s</t>
+  </si>
+  <si>
+    <t>OW4.45.1</t>
+  </si>
+  <si>
+    <t>OW4.45.2.2s</t>
+  </si>
+  <si>
+    <t>OW4.ASW</t>
+  </si>
+  <si>
+    <t>OW4.ASW.1s</t>
+  </si>
+  <si>
+    <t>OW4.DI</t>
+  </si>
+  <si>
+    <t>OW4.DI.1s</t>
+  </si>
+  <si>
+    <t>OW5.01</t>
+  </si>
+  <si>
+    <t>OW5.01.1.01s</t>
+  </si>
+  <si>
+    <t>OW5.01.2.2s</t>
+  </si>
+  <si>
+    <t>OW5.01.1</t>
+  </si>
+  <si>
+    <t>OW5.1</t>
+  </si>
+  <si>
+    <t>OW5.1.1.01s</t>
+  </si>
+  <si>
+    <t>OW5.1.1</t>
+  </si>
+  <si>
+    <t>OW5.1.2.2s</t>
+  </si>
+  <si>
+    <t>OW5.45</t>
+  </si>
+  <si>
+    <t>OW5.45.1.01s</t>
+  </si>
+  <si>
+    <t>OW5.45.1</t>
+  </si>
+  <si>
+    <t>OW5.45.2.2s</t>
+  </si>
+  <si>
+    <t>OW5.ASW</t>
+  </si>
+  <si>
+    <t>OW5.DI</t>
+  </si>
+  <si>
+    <t>OW5.ASW.1s</t>
+  </si>
+  <si>
+    <t>OW5.DI.1s</t>
+  </si>
+  <si>
+    <t>OW1.1.1</t>
+  </si>
+  <si>
+    <t>OxicW1.1.2s</t>
+  </si>
+  <si>
+    <t>PostTea11Mar24</t>
+  </si>
+  <si>
+    <t>PosT11Mar01s</t>
+  </si>
+  <si>
+    <t>PostTea12Mar24</t>
+  </si>
+  <si>
+    <t>PosT12Mar2401s</t>
+  </si>
+  <si>
+    <t>PostTea29Feb24</t>
+  </si>
+  <si>
+    <t>PoT29Feb2401s</t>
+  </si>
+  <si>
+    <t>PostTea01Mar24</t>
+  </si>
+  <si>
+    <t>PoT01Mar2401s</t>
+  </si>
+  <si>
+    <t>PreTea01Mar24</t>
+  </si>
+  <si>
+    <t>PreT01Mar2401s</t>
+  </si>
+  <si>
+    <t>PreTea07Mar24</t>
+  </si>
+  <si>
+    <t>PreT07Mar2401s</t>
+  </si>
+  <si>
+    <t>PreTea11Mar24</t>
+  </si>
+  <si>
+    <t>PreT11Mar2401s</t>
+  </si>
+  <si>
+    <t>PreTea12Mar24</t>
+  </si>
+  <si>
+    <t>PreT12Mar2401s</t>
+  </si>
+  <si>
+    <t>PreTea28Feb24</t>
+  </si>
+  <si>
+    <t>PreT28Feb241s</t>
+  </si>
+  <si>
+    <t>PreTea29Feb24</t>
+  </si>
+  <si>
+    <t>PreT29Feb2401s</t>
+  </si>
+  <si>
+    <t>OW3.1</t>
+  </si>
+  <si>
+    <t>OW3.1.1.01s</t>
+  </si>
+  <si>
+    <t>OW3.1.1</t>
+  </si>
+  <si>
+    <t>OW3.1.2.2s</t>
+  </si>
+  <si>
+    <t>PreT12Mar2401s (2) - Waterfall Plot Sample.dat")</t>
+  </si>
+  <si>
+    <t>PosT12Mar2401s (2) - Waterfall Plot Sample.dat")</t>
+  </si>
+  <si>
+    <t>OW2.1.01s (02) - Waterfall Plot Blank.dat")</t>
+  </si>
+  <si>
+    <t>OW2.1.01s (02) - Abs Spectra Graphs.dat")</t>
+  </si>
+  <si>
+    <t>PosT12Mar2401s (2) - Waterfall Plot Blank.dat")</t>
+  </si>
+  <si>
+    <t>PosT12Mar2401s (2) - Abs Spectra Graphs.dat")</t>
+  </si>
+  <si>
+    <t>PreT12Mar2401s (2) - Waterfall Plot Blank.dat")</t>
+  </si>
+  <si>
+    <t>PreT12Mar2401s (2) - Abs Spectra Graphs.dat")</t>
   </si>
 </sst>
 </file>
@@ -613,10 +1138,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="K88" sqref="K88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -628,7 +1153,7 @@
     <col min="5" max="5" width="18.1796875" style="10" customWidth="1"/>
     <col min="6" max="6" width="21" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="34.54296875" style="10" customWidth="1"/>
-    <col min="9" max="9" width="24.1796875" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="41.54296875" style="10" customWidth="1"/>
     <col min="10" max="10" width="10.90625" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.81640625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.81640625" style="7" customWidth="1"/>
@@ -645,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>2</v>
@@ -658,22 +1183,22 @@
         <v>7</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K1" s="20" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="N1" s="17" t="s">
         <v>5</v>
@@ -683,36 +1208,35 @@
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="8">
-        <v>44636</v>
-      </c>
       <c r="C2" s="14" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="F2" s="7">
         <v>1</v>
       </c>
       <c r="G2" s="11" t="str">
-        <f>CONCATENATE(D2," ",E2," (01) - Waterfall Plot Sample.dat")</f>
-        <v>BSLE0046C 1s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>17</v>
+        <f>CONCATENATE(D2," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW1.01.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H2" s="11" t="str">
+        <f>CONCATENATE(D2," (01) - Waterfall Plot Blank.dat")</f>
+        <v>AW1.01.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I2" s="11" t="str">
+        <f>CONCATENATE(D2," (01) - Abs Spectra Graphs.dat")</f>
+        <v>AW1.01.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="21">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L2" s="7">
         <v>2971</v>
@@ -728,36 +1252,35 @@
       <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="8">
-        <v>44635</v>
-      </c>
       <c r="C3" s="14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F3" s="7">
         <v>0.5</v>
       </c>
       <c r="G3" s="11" t="str">
-        <f>CONCATENATE(D3," ",E3," (01) - Waterfall Plot Sample.dat")</f>
-        <v>BSLE0057A 05s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>18</v>
+        <f>CONCATENATE(D3," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW1.01.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H3" s="11" t="str">
+        <f t="shared" ref="H3:H66" si="0">CONCATENATE(D3," (01) - Waterfall Plot Blank.dat")</f>
+        <v>AW1.01.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I3" s="11" t="str">
+        <f t="shared" ref="I3:I66" si="1">CONCATENATE(D3," (01) - Abs Spectra Graphs.dat")</f>
+        <v>AW1.01.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
       </c>
       <c r="K3" s="21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L3" s="7">
         <v>2971</v>
@@ -770,336 +1293,3103 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="A4" s="7">
+        <f>A3+1</f>
+        <v>3</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f>CONCATENATE(D4," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H4" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW1.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I4" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW1.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="A5" s="7">
+        <f t="shared" ref="A5:A68" si="2">A4+1</f>
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f>CONCATENATE(D5," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW1.1.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H5" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW1.1.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I5" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW1.1.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1</v>
+      </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="A6" s="7">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f>CONCATENATE(D6," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW1.45.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW1.45.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I6" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW1.45.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1</v>
+      </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="A7" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f>CONCATENATE(D7," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW1.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW1.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I7" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW1.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1</v>
+      </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="A8" s="7">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f>CONCATENATE(D8," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW1.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW1.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I8" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW1.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="21">
+        <v>1</v>
+      </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="A9" s="7">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f>CONCATENATE(D9," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW2.01.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW2.01.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I9" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW2.01.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="A10" s="7">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f>CONCATENATE(D10," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW2.01.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW2.01.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW2.01.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="21">
+        <v>2</v>
+      </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="A11" s="7">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f>CONCATENATE(D11," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW2.1.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW2.1.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I11" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW2.1.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="21">
+        <v>2</v>
+      </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="A12" s="7">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f>CONCATENATE(D12," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW2.45.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW2.45.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I12" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW2.45.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="21">
+        <v>1</v>
+      </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C13" s="14"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="A13" s="7">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f>CONCATENATE(D13," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW2.45.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW2.45.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I13" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW2.45.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="21">
+        <v>2</v>
+      </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C14" s="14"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="A14" s="7">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f>CONCATENATE(D14," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW2.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW2.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I14" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW2.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="21">
+        <v>1</v>
+      </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C15" s="14"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="A15" s="7">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f>CONCATENATE(D15," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW2.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW2.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I15" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW2.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="21">
+        <v>1</v>
+      </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C16" s="14"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="A16" s="7">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f>CONCATENATE(D16," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.01.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.01.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I16" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.01.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17" s="7">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f>CONCATENATE(D17," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.01.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.01.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I17" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.01.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="21">
+        <v>2</v>
+      </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18" s="7">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f>CONCATENATE(D18," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.1.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.1.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I18" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.1.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="21">
+        <v>1</v>
+      </c>
       <c r="M18" s="12"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19" s="7">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f>CONCATENATE(D19," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I19" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="21">
+        <v>2</v>
+      </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f>CONCATENATE(D20," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.45.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.45.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I20" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.45.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M20" s="12"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21" s="7">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f>CONCATENATE(D21," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.45.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.45.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I21" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.45.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="21">
+        <v>2</v>
+      </c>
       <c r="M21" s="12"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22" s="7">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f>CONCATENATE(D22," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.45.3.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.45.3.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I22" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.45.3.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="21">
+        <v>2</v>
+      </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C23" s="14"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" s="7">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f>CONCATENATE(D23," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.45.4.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.45.4.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I23" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.45.4.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="21">
+        <v>2</v>
+      </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C24" s="14"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24" s="7">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G24" s="11" t="str">
+        <f>CONCATENATE(D24," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="21">
+        <v>1</v>
+      </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C25" s="14"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25" s="7">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="11" t="str">
+        <f>CONCATENATE(D25," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW3.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW3.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I25" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW3.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1</v>
+      </c>
+      <c r="K25" s="21">
+        <v>1</v>
+      </c>
       <c r="M25" s="12"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26" s="7">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="11" t="str">
+        <f>CONCATENATE(D26," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW4.01.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW4.01.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I26" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW4.01.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J26" s="7">
+        <v>1</v>
+      </c>
+      <c r="K26" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M26" s="12"/>
       <c r="N26" s="16"/>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27" s="7">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G27" s="11" t="str">
+        <f>CONCATENATE(D27," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW4.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW4.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I27" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW4.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J27" s="7">
+        <v>1</v>
+      </c>
+      <c r="K27" s="21">
+        <v>2</v>
+      </c>
       <c r="M27" s="12"/>
       <c r="N27" s="16"/>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28" s="7">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="11" t="str">
+        <f>CONCATENATE(D28," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW4.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H28" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW4.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I28" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW4.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J28" s="7">
+        <v>1</v>
+      </c>
+      <c r="K28" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M28" s="12"/>
       <c r="N28" s="16"/>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29" s="7">
+        <f>A28+1</f>
+        <v>28</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G29" s="11" t="str">
+        <f>CONCATENATE(D29," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW4.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H29" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW4.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I29" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW4.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J29" s="7">
+        <v>1</v>
+      </c>
+      <c r="K29" s="21">
+        <v>2</v>
+      </c>
       <c r="M29" s="12"/>
       <c r="N29" s="16"/>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30" s="7">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="11" t="str">
+        <f>CONCATENATE(D30," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW4.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H30" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW4.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I30" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW4.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J30" s="7">
+        <v>1</v>
+      </c>
+      <c r="K30" s="21">
+        <v>2</v>
+      </c>
       <c r="M30" s="12"/>
       <c r="N30" s="16"/>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.35">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="7">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G31" s="11" t="str">
+        <f>CONCATENATE(D31," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW4.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H31" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW4.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW4.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J31" s="7">
+        <v>1</v>
+      </c>
+      <c r="K31" s="21">
+        <v>1</v>
+      </c>
       <c r="M31" s="18"/>
       <c r="N31" s="16"/>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32" s="7">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="11" t="str">
+        <f>CONCATENATE(D32," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW4.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H32" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW4.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I32" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW4.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J32" s="7">
+        <v>1</v>
+      </c>
+      <c r="K32" s="21">
+        <v>1</v>
+      </c>
       <c r="M32" s="18"/>
       <c r="N32" s="16"/>
     </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33" s="7">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G33" s="11" t="str">
+        <f>CONCATENATE(D33," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW5.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H33" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW5.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I33" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW5.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J33" s="7">
+        <v>1</v>
+      </c>
+      <c r="K33" s="21">
+        <v>2</v>
+      </c>
       <c r="M33" s="18"/>
       <c r="N33" s="16"/>
     </row>
-    <row r="34" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34" s="7">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G34" s="11" t="str">
+        <f>CONCATENATE(D34," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW5.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H34" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW5.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I34" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW5.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J34" s="7">
+        <v>1</v>
+      </c>
+      <c r="K34" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M34" s="18"/>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35" s="7">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="11" t="str">
+        <f>CONCATENATE(D35," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW5.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H35" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW5.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I35" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW5.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="21">
+        <v>2</v>
+      </c>
       <c r="M35" s="18"/>
       <c r="N35" s="16"/>
     </row>
-    <row r="36" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" s="7">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G36" s="11" t="str">
+        <f>CONCATENATE(D36," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW5.45.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H36" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW5.45.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I36" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW5.45.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M36" s="18"/>
       <c r="N36" s="16"/>
     </row>
-    <row r="37" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37" s="7">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G37" s="10" t="str">
+        <f>CONCATENATE(D37," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW5.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H37" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW5.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I37" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW5.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="21">
+        <v>2</v>
+      </c>
       <c r="M37" s="18"/>
       <c r="N37" s="16"/>
     </row>
-    <row r="38" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38" s="7">
+        <f t="shared" si="2"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="10" t="str">
+        <f>CONCATENATE(D38," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW5.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H38" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW5.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I38" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW5.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="21">
+        <v>1</v>
+      </c>
       <c r="M38" s="18"/>
       <c r="N38" s="16"/>
     </row>
-    <row r="39" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39" s="7">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G39" s="10" t="str">
+        <f>CONCATENATE(D39," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW5.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H39" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>AW5.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I39" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>AW5.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="21">
+        <v>1</v>
+      </c>
       <c r="M39" s="18"/>
       <c r="N39" s="16"/>
     </row>
-    <row r="41" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40" s="7">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G40" s="10" t="str">
+        <f>CONCATENATE(D40," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW1.01.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H40" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW1.01.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I40" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW1.01.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41" s="7">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="10" t="str">
+        <f>CONCATENATE(D41," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H41" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW1.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I41" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW1.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J41" s="7">
+        <v>1</v>
+      </c>
+      <c r="K41" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M41" s="18"/>
     </row>
-    <row r="42" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42" s="7">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F42" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G42" s="10" t="str">
+        <f>CONCATENATE(D42," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW1.45.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H42" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW1.45.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I42" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW1.45.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J42" s="7">
+        <v>1</v>
+      </c>
+      <c r="K42" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M42" s="18"/>
     </row>
-    <row r="43" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43" s="7">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F43" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G43" s="10" t="str">
+        <f>CONCATENATE(D43," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW1.45.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H43" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW1.45.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I43" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW1.45.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J43" s="7">
+        <v>1</v>
+      </c>
+      <c r="K43" s="21">
+        <v>2</v>
+      </c>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44" s="7">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="10" t="str">
+        <f>CONCATENATE(D44," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW1.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H44" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW1.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I44" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW1.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J44" s="7">
+        <v>1</v>
+      </c>
+      <c r="K44" s="21">
+        <v>1</v>
+      </c>
       <c r="M44" s="18"/>
     </row>
-    <row r="45" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45" s="7">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G45" s="10" t="str">
+        <f>CONCATENATE(D45," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW1.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H45" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW1.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I45" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW1.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J45" s="7">
+        <v>1</v>
+      </c>
+      <c r="K45" s="21">
+        <v>1</v>
+      </c>
       <c r="M45" s="18"/>
     </row>
-    <row r="46" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46" s="7">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="10" t="str">
+        <f>CONCATENATE(D46," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW2.01.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H46" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW2.01.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I46" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW2.01.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J46" s="7">
+        <v>1</v>
+      </c>
+      <c r="K46" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M46" s="18"/>
     </row>
-    <row r="47" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47" s="7">
+        <f t="shared" si="2"/>
+        <v>46</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G47" s="10" t="str">
+        <f>CONCATENATE(D47," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW2.01.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H47" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW2.01.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I47" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW2.01.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J47" s="7">
+        <v>1</v>
+      </c>
+      <c r="K47" s="21">
+        <v>1</v>
+      </c>
       <c r="M47" s="18"/>
     </row>
-    <row r="48" spans="13:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48" s="7">
+        <f t="shared" si="2"/>
+        <v>47</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1</v>
+      </c>
+      <c r="K48" s="21">
+        <v>0.1</v>
+      </c>
       <c r="M48" s="18"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" s="7">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G49" s="10" t="str">
+        <f>CONCATENATE(D49," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW2.1.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H49" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW2.1.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I49" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW2.1.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J49" s="7">
+        <v>1</v>
+      </c>
+      <c r="K49" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" s="7">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G50" s="10" t="str">
+        <f>CONCATENATE(D50," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW2.1.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H50" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW2.1.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I50" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW2.1.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J50" s="7">
+        <v>1</v>
+      </c>
+      <c r="K50" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" s="7">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H51" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW2.45.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I51" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW2.45.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J51" s="7">
+        <v>1</v>
+      </c>
+      <c r="K51" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="7">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="10" t="str">
+        <f>CONCATENATE(D52," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW2.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H52" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW2.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I52" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW2.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J52" s="7">
+        <v>1</v>
+      </c>
+      <c r="K52" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="7">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G53" s="10" t="str">
+        <f>CONCATENATE(D53," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW2.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H53" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW2.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I53" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW2.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J53" s="7">
+        <v>1</v>
+      </c>
+      <c r="K53" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="7">
+        <f t="shared" si="2"/>
+        <v>53</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G54" s="10" t="str">
+        <f>CONCATENATE(D54," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW3.01.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H54" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW3.01.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I54" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW3.01.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J54" s="7">
+        <v>1</v>
+      </c>
+      <c r="K54" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" s="7">
+        <f t="shared" si="2"/>
+        <v>54</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F55" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G55" s="10" t="str">
+        <f>CONCATENATE(D55," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW3.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H55" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW3.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I55" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW3.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J55" s="7">
+        <v>1</v>
+      </c>
+      <c r="K55" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" s="7">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G56" s="10" t="str">
+        <f>CONCATENATE(D56," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW3.45.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H56" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW3.45.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I56" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW3.45.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J56" s="7">
+        <v>1</v>
+      </c>
+      <c r="K56" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" s="7">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G57" s="10" t="str">
+        <f>CONCATENATE(D57," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW3.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H57" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW3.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I57" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW3.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J57" s="7">
+        <v>1</v>
+      </c>
+      <c r="K57" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" s="7">
+        <f t="shared" si="2"/>
+        <v>57</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G58" s="10" t="str">
+        <f>CONCATENATE(D58," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW3.ASW.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H58" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW3.ASW.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I58" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW3.ASW.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J58" s="7">
+        <v>1</v>
+      </c>
+      <c r="K58" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" s="7">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F59" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G59" s="10" t="str">
+        <f>CONCATENATE(D59," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW3.DI.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H59" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW3.DI.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I59" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW3.DI.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J59" s="7">
+        <v>1</v>
+      </c>
+      <c r="K59" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" s="7">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G60" s="10" t="str">
+        <f>CONCATENATE(D60," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW4.01.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H60" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW4.01.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I60" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW4.01.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J60" s="7">
+        <v>1</v>
+      </c>
+      <c r="K60" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" s="7">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G61" s="10" t="str">
+        <f>CONCATENATE(D61," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW4.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H61" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW4.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I61" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW4.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J61" s="7">
+        <v>1</v>
+      </c>
+      <c r="K61" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="7">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G62" s="10" t="str">
+        <f>CONCATENATE(D62," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW4.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H62" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW4.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I62" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW4.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J62" s="7">
+        <v>1</v>
+      </c>
+      <c r="K62" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="7">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G63" s="10" t="str">
+        <f>CONCATENATE(D63," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW4.45.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H63" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW4.45.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I63" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW4.45.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J63" s="7">
+        <v>1</v>
+      </c>
+      <c r="K63" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="7">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G64" s="10" t="str">
+        <f>CONCATENATE(D64," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW4.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H64" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW4.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I64" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW4.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J64" s="7">
+        <v>1</v>
+      </c>
+      <c r="K64" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" s="7">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G65" s="10" t="str">
+        <f>CONCATENATE(D65," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW4.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H65" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW4.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I65" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW4.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J65" s="7">
+        <v>1</v>
+      </c>
+      <c r="K65" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" s="7">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G66" s="10" t="str">
+        <f>CONCATENATE(D66," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW4.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H66" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>OW4.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I66" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW4.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J66" s="7">
+        <v>1</v>
+      </c>
+      <c r="K66" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" s="7">
+        <f t="shared" si="2"/>
+        <v>66</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G67" s="10" t="str">
+        <f t="shared" ref="G67:G88" si="3">CONCATENATE(D67," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW5.01.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H67" s="11" t="str">
+        <f t="shared" ref="H67:H88" si="4">CONCATENATE(D67," (01) - Waterfall Plot Blank.dat")</f>
+        <v>OW5.01.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I67" s="11" t="str">
+        <f t="shared" ref="I67:I88" si="5">CONCATENATE(D67," (01) - Abs Spectra Graphs.dat")</f>
+        <v>OW5.01.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1</v>
+      </c>
+      <c r="K67" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
+        <f t="shared" si="2"/>
+        <v>67</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW5.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H68" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW5.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I68" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J68" s="7">
+        <v>1</v>
+      </c>
+      <c r="K68" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" s="7">
+        <f t="shared" ref="A69:A88" si="6">A68+1</f>
+        <v>68</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G69" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW5.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H69" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW5.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I69" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J69" s="7">
+        <v>1</v>
+      </c>
+      <c r="K69" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" s="7">
+        <f t="shared" si="6"/>
+        <v>69</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F70" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G70" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW5.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H70" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW5.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I70" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J70" s="7">
+        <v>1</v>
+      </c>
+      <c r="K70" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" s="7">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F71" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G71" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW5.45.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H71" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW5.45.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I71" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.45.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J71" s="7">
+        <v>1</v>
+      </c>
+      <c r="K71" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" s="7">
+        <f t="shared" si="6"/>
+        <v>71</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW5.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H72" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW5.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I72" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1</v>
+      </c>
+      <c r="K72" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F73" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G73" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW5.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H73" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW5.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I73" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J73" s="7">
+        <v>1</v>
+      </c>
+      <c r="K73" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" s="7">
+        <f t="shared" si="6"/>
+        <v>73</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G74" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW5.DI.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H74" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW5.DI.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I74" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.DI.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J74" s="7">
+        <v>1</v>
+      </c>
+      <c r="K74" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" s="7">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F75" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G75" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OxicW1.1.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H75" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OxicW1.1.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I75" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OxicW1.1.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J75" s="7">
+        <v>1</v>
+      </c>
+      <c r="K75" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A76" s="7">
+        <f t="shared" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F76" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G76" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PosT11Mar01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H76" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>PosT11Mar01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I76" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>PosT11Mar01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J76" s="7">
+        <v>1</v>
+      </c>
+      <c r="K76" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A77" s="7">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="H77" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="I77" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="J77" s="7">
+        <v>1</v>
+      </c>
+      <c r="K77" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A78" s="7">
+        <f t="shared" si="6"/>
+        <v>77</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PoT01Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H78" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>PoT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I78" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>PoT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J78" s="7">
+        <v>1</v>
+      </c>
+      <c r="K78" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A79" s="7">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F79" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G79" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PoT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H79" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>PoT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I79" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>PoT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J79" s="7">
+        <v>1</v>
+      </c>
+      <c r="K79" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A80" s="7">
+        <f t="shared" si="6"/>
+        <v>79</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PreT01Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H80" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>PreT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I80" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J80" s="7">
+        <v>1</v>
+      </c>
+      <c r="K80" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A81" s="7">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PreT07Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H81" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>PreT07Mar2401s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I81" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT07Mar2401s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J81" s="7">
+        <v>1</v>
+      </c>
+      <c r="K81" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A82" s="7">
+        <f t="shared" si="6"/>
+        <v>81</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F82" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G82" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PreT11Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H82" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>PreT11Mar2401s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I82" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT11Mar2401s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J82" s="7">
+        <v>1</v>
+      </c>
+      <c r="K82" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A83" s="7">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="H83" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I83" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J83" s="7">
+        <v>1</v>
+      </c>
+      <c r="K83" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
+        <f t="shared" si="6"/>
+        <v>83</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PreT28Feb241s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H84" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>PreT28Feb241s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I84" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT28Feb241s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J84" s="7">
+        <v>1</v>
+      </c>
+      <c r="K84" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A85" s="7">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>PreT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H85" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>PreT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I85" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J85" s="7">
+        <v>1</v>
+      </c>
+      <c r="K85" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A86" s="7">
+        <f t="shared" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW3.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H86" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW3.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I86" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW3.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J86" s="7">
+        <v>1</v>
+      </c>
+      <c r="K86" s="21">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A87" s="7">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="10" t="str">
+        <f t="shared" si="3"/>
+        <v>OW3.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H87" s="11" t="str">
+        <f t="shared" si="4"/>
+        <v>OW3.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I87" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>OW3.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J87" s="7">
+        <v>1</v>
+      </c>
+      <c r="K87" s="21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E88" s="15"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
@@ -1108,7 +4398,7 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{5FA5E408-7820-4560-9448-59549073E559}"/>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{91B65685-9DD5-4A81-A397-EEC12A8E737E}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 D68" xr:uid="{91B65685-9DD5-4A81-A397-EEC12A8E737E}">
       <formula1>60</formula1>
     </dataValidation>
   </dataValidations>
@@ -1143,6 +4433,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006DC853A563ABF64B8421887057055B0F" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc9eeb85f870db85836ebf928b72b328">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="03570766-e33a-4164-8943-6d32a7ac417a" xmlns:ns3="5cece13e-3376-4417-9525-be60b11a89a8" xmlns:ns4="482683a9-e61d-4853-b10b-3f4a908e17aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="969d79ec6f022e266d0cef666704971a" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="03570766-e33a-4164-8943-6d32a7ac417a"/>
@@ -1376,42 +4686,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="03570766-e33a-4164-8943-6d32a7ac417a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074D2D73-629A-40FA-A1A5-6667B94A43D9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1309EEDC-9234-46B2-B888-2F9B557CB205}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
-    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
-    <ds:schemaRef ds:uri="482683a9-e61d-4853-b10b-3f4a908e17aa"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1435,9 +4713,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1309EEDC-9234-46B2-B888-2F9B557CB205}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{074D2D73-629A-40FA-A1A5-6667B94A43D9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
+    <ds:schemaRef ds:uri="5cece13e-3376-4417-9525-be60b11a89a8"/>
+    <ds:schemaRef ds:uri="482683a9-e61d-4853-b10b-3f4a908e17aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/1-data/CDOM/EEM_Template/SampleLog.xlsx
+++ b/1-data/CDOM/EEM_Template/SampleLog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olou646\tempest-exp-feom-ConnorSULI\1-data\CDOM\EEM_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDD35D7-7847-4274-A004-B48F46F63815}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35539644-E5E7-4FEC-9EAD-3A5268C95F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="204">
   <si>
     <t>index</t>
   </si>
@@ -125,9 +125,6 @@
     <t>1s</t>
   </si>
   <si>
-    <t>AW1.01</t>
-  </si>
-  <si>
     <t>AW1.45</t>
   </si>
   <si>
@@ -164,9 +161,6 @@
     <t>AW1.01.1s</t>
   </si>
   <si>
-    <t>AW1.01.01s</t>
-  </si>
-  <si>
     <t>AW2.01</t>
   </si>
   <si>
@@ -596,15 +590,9 @@
     <t>PostTea29Feb24</t>
   </si>
   <si>
-    <t>PoT29Feb2401s</t>
-  </si>
-  <si>
     <t>PostTea01Mar24</t>
   </si>
   <si>
-    <t>PoT01Mar2401s</t>
-  </si>
-  <si>
     <t>PreTea01Mar24</t>
   </si>
   <si>
@@ -675,6 +663,36 @@
   </si>
   <si>
     <t>PreT12Mar2401s (2) - Abs Spectra Graphs.dat")</t>
+  </si>
+  <si>
+    <t>PosT29Feb2401s</t>
+  </si>
+  <si>
+    <t>PosT01Mar2401s</t>
+  </si>
+  <si>
+    <t>PreTea28Mar24</t>
+  </si>
+  <si>
+    <t>PostTea28Mar24</t>
+  </si>
+  <si>
+    <t>PreT28Mar24</t>
+  </si>
+  <si>
+    <t>PosT28Mar24</t>
+  </si>
+  <si>
+    <t>AW4.45.01s</t>
+  </si>
+  <si>
+    <t>OW4.1.2s</t>
+  </si>
+  <si>
+    <t>OW4.1.1</t>
+  </si>
+  <si>
+    <t>AW4.45.1</t>
   </si>
 </sst>
 </file>
@@ -1138,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N88"/>
+  <dimension ref="A1:N90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="86" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K88" sqref="K88"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1206,140 +1224,148 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="8">
+        <v>45351</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>120</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="F2" s="7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2" s="11" t="str">
-        <f>CONCATENATE(D2," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW1.01.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" ref="G2:G46" si="0">CONCATENATE(D2," (01) - Waterfall Plot Sample.dat")</f>
+        <v>AW1.01.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H2" s="11" t="str">
-        <f>CONCATENATE(D2," (01) - Waterfall Plot Blank.dat")</f>
-        <v>AW1.01.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" ref="H2:H65" si="1">CONCATENATE(D2," (01) - Waterfall Plot Blank.dat")</f>
+        <v>AW1.01.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I2" s="11" t="str">
-        <f>CONCATENATE(D2," (01) - Abs Spectra Graphs.dat")</f>
-        <v>AW1.01.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" ref="I2:I65" si="2">CONCATENATE(D2," (01) - Abs Spectra Graphs.dat")</f>
+        <v>AW1.01.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J2" s="7">
         <v>1</v>
       </c>
       <c r="K2" s="21">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="L2" s="7">
-        <v>2971</v>
-      </c>
-      <c r="M2" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="N2" s="12">
-        <v>1</v>
-      </c>
+        <v>3018</v>
+      </c>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
-        <v>2</v>
+        <f>A2+1</f>
+        <v>3</v>
+      </c>
+      <c r="B3" s="8">
+        <v>45351</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>13</v>
+      <c r="D3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>118</v>
       </c>
       <c r="F3" s="7">
         <v>0.5</v>
       </c>
       <c r="G3" s="11" t="str">
-        <f>CONCATENATE(D3," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW1.01.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW1.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H3" s="11" t="str">
-        <f t="shared" ref="H3:H66" si="0">CONCATENATE(D3," (01) - Waterfall Plot Blank.dat")</f>
-        <v>AW1.01.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW1.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I3" s="11" t="str">
-        <f t="shared" ref="I3:I66" si="1">CONCATENATE(D3," (01) - Abs Spectra Graphs.dat")</f>
-        <v>AW1.01.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW1.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
       </c>
       <c r="K3" s="21">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="L3" s="7">
-        <v>2971</v>
-      </c>
-      <c r="M3" s="12">
-        <v>1</v>
-      </c>
-      <c r="N3" s="12">
-        <v>1</v>
-      </c>
+        <v>3018</v>
+      </c>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <f>A3+1</f>
-        <v>3</v>
+        <f t="shared" ref="A4:A67" si="3">A3+1</f>
+        <v>4</v>
+      </c>
+      <c r="B4" s="8">
+        <v>45351</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="F4" s="7">
         <v>0.5</v>
       </c>
       <c r="G4" s="11" t="str">
-        <f>CONCATENATE(D4," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW1.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW1.1.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H4" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW1.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW1.1.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I4" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW1.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW1.1.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J4" s="7">
         <v>1</v>
       </c>
       <c r="K4" s="21">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>3018</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <f t="shared" ref="A5:A68" si="2">A4+1</f>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45351</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>13</v>
@@ -1348,36 +1374,42 @@
         <v>0.5</v>
       </c>
       <c r="G5" s="11" t="str">
-        <f>CONCATENATE(D5," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW1.1.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW1.45.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H5" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW1.1.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW1.45.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I5" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW1.1.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW1.45.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J5" s="7">
         <v>1</v>
       </c>
       <c r="K5" s="21">
         <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>3018</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="B6" s="8">
+        <v>45351</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>13</v>
@@ -1386,36 +1418,42 @@
         <v>0.5</v>
       </c>
       <c r="G6" s="11" t="str">
-        <f>CONCATENATE(D6," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW1.45.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW1.ASW.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H6" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW1.45.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW1.ASW.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I6" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW1.45.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW1.ASW.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J6" s="7">
         <v>1</v>
       </c>
       <c r="K6" s="21">
         <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>3018</v>
       </c>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="B7" s="8">
+        <v>45351</v>
       </c>
       <c r="C7" s="14" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>13</v>
@@ -1424,130 +1462,148 @@
         <v>0.5</v>
       </c>
       <c r="G7" s="11" t="str">
-        <f>CONCATENATE(D7," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW1.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW1.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H7" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW1.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW1.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I7" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW1.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW1.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J7" s="7">
         <v>1</v>
       </c>
       <c r="K7" s="21">
         <v>1</v>
+      </c>
+      <c r="L7" s="7">
+        <v>3018</v>
       </c>
       <c r="M7" s="12"/>
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <v>45352</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F8" s="7">
         <v>0.5</v>
       </c>
       <c r="G8" s="11" t="str">
-        <f>CONCATENATE(D8," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW1.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW2.01.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H8" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW1.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW2.01.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I8" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW1.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW2.01.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J8" s="7">
         <v>1</v>
       </c>
       <c r="K8" s="21">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="7">
+        <v>2957</v>
       </c>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="B9" s="8">
+        <v>45352</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F9" s="7">
         <v>0.5</v>
       </c>
       <c r="G9" s="11" t="str">
-        <f>CONCATENATE(D9," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW2.01.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW2.01.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H9" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW2.01.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW2.01.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I9" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW2.01.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW2.01.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
       <c r="K9" s="21">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="L9" s="7">
+        <v>2957</v>
       </c>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="B10" s="8">
+        <v>45352</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F10" s="7">
         <v>0.5</v>
       </c>
       <c r="G10" s="11" t="str">
-        <f>CONCATENATE(D10," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW2.01.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW2.1.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW2.01.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW2.1.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I10" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW2.01.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW2.1.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
@@ -1555,133 +1611,157 @@
       <c r="K10" s="21">
         <v>2</v>
       </c>
+      <c r="L10" s="7">
+        <v>2957</v>
+      </c>
       <c r="M10" s="12"/>
       <c r="N10" s="12"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="8">
+        <v>45352</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F11" s="7">
         <v>0.5</v>
       </c>
       <c r="G11" s="11" t="str">
-        <f>CONCATENATE(D11," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW2.1.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW2.45.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H11" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW2.1.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW2.45.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I11" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW2.1.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW2.45.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J11" s="7">
         <v>1</v>
       </c>
       <c r="K11" s="21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2957</v>
       </c>
       <c r="M11" s="12"/>
       <c r="N11" s="12"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="B12" s="8">
+        <v>45352</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7">
         <v>0.5</v>
       </c>
       <c r="G12" s="11" t="str">
-        <f>CONCATENATE(D12," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW2.45.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW2.45.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H12" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW2.45.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW2.45.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I12" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW2.45.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW2.45.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J12" s="7">
         <v>1</v>
       </c>
       <c r="K12" s="21">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="L12" s="7">
+        <v>2957</v>
       </c>
       <c r="M12" s="12"/>
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <f t="shared" si="2"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45352</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F13" s="7">
         <v>0.5</v>
       </c>
       <c r="G13" s="11" t="str">
-        <f>CONCATENATE(D13," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW2.45.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW2.ASW.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H13" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW2.45.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW2.ASW.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I13" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW2.45.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW2.ASW.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J13" s="7">
         <v>1</v>
       </c>
       <c r="K13" s="21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>2957</v>
       </c>
       <c r="M13" s="12"/>
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <f t="shared" si="2"/>
-        <v>13</v>
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="B14" s="8">
+        <v>45352</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>13</v>
@@ -1690,68 +1770,80 @@
         <v>0.5</v>
       </c>
       <c r="G14" s="11" t="str">
-        <f>CONCATENATE(D14," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW2.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW2.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H14" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW2.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW2.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I14" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW2.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW2.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J14" s="7">
         <v>1</v>
       </c>
       <c r="K14" s="21">
         <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>2957</v>
       </c>
       <c r="M14" s="12"/>
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <f t="shared" si="2"/>
-        <v>14</v>
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="B15" s="8">
+        <v>45352</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F15" s="7">
         <v>0.5</v>
       </c>
       <c r="G15" s="11" t="str">
-        <f>CONCATENATE(D15," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW2.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.01.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H15" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW2.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.01.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I15" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW2.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.01.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J15" s="7">
         <v>1</v>
       </c>
       <c r="K15" s="21">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2957</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <f t="shared" si="2"/>
-        <v>15</v>
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="B16" s="8">
+        <v>45352</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>42</v>
@@ -1760,36 +1852,44 @@
         <v>43</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F16" s="7">
         <v>0.5</v>
       </c>
       <c r="G16" s="11" t="str">
-        <f>CONCATENATE(D16," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.01.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.01.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H16" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.01.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.01.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I16" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.01.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.01.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J16" s="7">
         <v>1</v>
       </c>
       <c r="K16" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="M16" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2957</v>
+      </c>
+      <c r="M16" s="12">
+        <v>25</v>
+      </c>
       <c r="N16" s="12"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="B17" s="8">
+        <v>45362</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>44</v>
@@ -1798,36 +1898,42 @@
         <v>45</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F17" s="7">
         <v>0.5</v>
       </c>
       <c r="G17" s="11" t="str">
-        <f>CONCATENATE(D17," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.01.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.1.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H17" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.01.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.1.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I17" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.01.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.1.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J17" s="7">
         <v>1</v>
       </c>
       <c r="K17" s="21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L17" s="7">
+        <v>2910</v>
       </c>
       <c r="M17" s="12"/>
       <c r="N17" s="12"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="B18" s="8">
+        <v>45362</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>46</v>
@@ -1836,36 +1942,44 @@
         <v>47</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F18" s="7">
         <v>0.5</v>
       </c>
       <c r="G18" s="11" t="str">
-        <f>CONCATENATE(D18," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.1.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.1.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H18" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.1.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.1.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I18" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.1.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.1.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J18" s="7">
         <v>1</v>
       </c>
       <c r="K18" s="21">
-        <v>1</v>
-      </c>
-      <c r="M18" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="L18" s="7">
+        <v>2910</v>
+      </c>
+      <c r="M18" s="12">
+        <v>100</v>
+      </c>
       <c r="N18" s="12"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="B19" s="8">
+        <v>45358</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>48</v>
@@ -1874,98 +1988,112 @@
         <v>49</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F19" s="7">
         <v>0.5</v>
       </c>
       <c r="G19" s="11" t="str">
-        <f>CONCATENATE(D19," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.45.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H19" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.45.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I19" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.45.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J19" s="7">
         <v>1</v>
       </c>
       <c r="K19" s="21">
-        <v>2</v>
+        <v>0.1</v>
+      </c>
+      <c r="L19" s="7">
+        <v>2863</v>
       </c>
       <c r="M19" s="12"/>
       <c r="N19" s="12"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="B20" s="8">
+        <v>45358</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>50</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F20" s="7">
         <v>0.5</v>
       </c>
       <c r="G20" s="11" t="str">
-        <f>CONCATENATE(D20," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.45.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.45.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H20" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.45.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.45.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I20" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.45.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.45.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J20" s="7">
         <v>1</v>
       </c>
       <c r="K20" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="M20" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="L20" s="7">
+        <v>2863</v>
+      </c>
+      <c r="M20" s="12">
+        <v>25</v>
+      </c>
       <c r="N20" s="12"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" s="7">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="8">
+        <v>45362</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>55</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F21" s="7">
         <v>0.5</v>
       </c>
       <c r="G21" s="11" t="str">
-        <f>CONCATENATE(D21," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.45.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.45.3.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H21" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.45.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.45.3.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I21" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.45.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.45.3.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J21" s="7">
         <v>1</v>
@@ -1973,37 +2101,45 @@
       <c r="K21" s="21">
         <v>2</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="L21" s="7">
+        <v>2910</v>
+      </c>
+      <c r="M21" s="12">
+        <v>50</v>
+      </c>
       <c r="N21" s="12"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="7">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="B22" s="8">
+        <v>45362</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7">
         <v>0.5</v>
       </c>
       <c r="G22" s="11" t="str">
-        <f>CONCATENATE(D22," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.45.3.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.45.4.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H22" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.45.3.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.45.4.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I22" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.45.3.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.45.4.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J22" s="7">
         <v>1</v>
@@ -2011,57 +2147,71 @@
       <c r="K22" s="21">
         <v>2</v>
       </c>
-      <c r="M22" s="12"/>
+      <c r="L22" s="7">
+        <v>2910</v>
+      </c>
+      <c r="M22" s="12">
+        <v>100</v>
+      </c>
       <c r="N22" s="12"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" s="7">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="B23" s="8">
+        <v>45352</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F23" s="7">
         <v>0.5</v>
       </c>
       <c r="G23" s="11" t="str">
-        <f>CONCATENATE(D23," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.45.4.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.ASW.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H23" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.45.4.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.ASW.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I23" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.45.4.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.ASW.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J23" s="7">
         <v>1</v>
       </c>
       <c r="K23" s="21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L23" s="7">
+        <v>2957</v>
       </c>
       <c r="M23" s="12"/>
       <c r="N23" s="12"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" s="7">
-        <f t="shared" si="2"/>
-        <v>23</v>
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="B24" s="8">
+        <v>45352</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>13</v>
@@ -2070,68 +2220,80 @@
         <v>0.5</v>
       </c>
       <c r="G24" s="11" t="str">
-        <f>CONCATENATE(D24," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW3.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H24" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW3.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I24" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW3.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J24" s="7">
         <v>1</v>
       </c>
       <c r="K24" s="21">
         <v>1</v>
+      </c>
+      <c r="L24" s="7">
+        <v>2957</v>
       </c>
       <c r="M24" s="12"/>
       <c r="N24" s="12"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" s="7">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D25" s="15" t="s">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="B25" s="8">
+        <v>45363</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F25" s="7">
         <v>0.5</v>
       </c>
       <c r="G25" s="11" t="str">
-        <f>CONCATENATE(D25," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW3.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW4.01.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H25" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW3.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW4.01.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I25" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW3.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW4.01.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J25" s="7">
         <v>1</v>
       </c>
       <c r="K25" s="21">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L25" s="7">
+        <v>2947</v>
       </c>
       <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" s="7">
-        <f t="shared" si="2"/>
-        <v>25</v>
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="B26" s="8">
+        <v>45363</v>
       </c>
       <c r="C26" s="16" t="s">
         <v>62</v>
@@ -2140,36 +2302,44 @@
         <v>63</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7">
         <v>0.5</v>
       </c>
       <c r="G26" s="11" t="str">
-        <f>CONCATENATE(D26," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW4.01.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW4.01.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H26" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW4.01.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW4.01.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I26" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW4.01.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW4.01.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J26" s="7">
         <v>1</v>
       </c>
       <c r="K26" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="M26" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="L26" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M26" s="12">
+        <v>50</v>
+      </c>
       <c r="N26" s="16"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" s="7">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="B27" s="8">
+        <v>45363</v>
       </c>
       <c r="C27" s="16" t="s">
         <v>64</v>
@@ -2178,36 +2348,42 @@
         <v>65</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F27" s="7">
         <v>0.5</v>
       </c>
       <c r="G27" s="11" t="str">
-        <f>CONCATENATE(D27," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW4.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW4.1.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H27" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW4.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW4.1.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I27" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW4.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW4.1.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J27" s="7">
         <v>1</v>
       </c>
       <c r="K27" s="21">
-        <v>2</v>
+        <v>0.1</v>
+      </c>
+      <c r="L27" s="7">
+        <v>2947</v>
       </c>
       <c r="M27" s="12"/>
       <c r="N27" s="16"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" s="7">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f>A27+1</f>
+        <v>28</v>
+      </c>
+      <c r="B28" s="8">
+        <v>45363</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>66</v>
@@ -2216,60 +2392,68 @@
         <v>67</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F28" s="7">
         <v>0.5</v>
       </c>
       <c r="G28" s="11" t="str">
-        <f>CONCATENATE(D28," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW4.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW4.1.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H28" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW4.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW4.1.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I28" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW4.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW4.1.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J28" s="7">
         <v>1</v>
       </c>
       <c r="K28" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="M28" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="L28" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M28" s="12">
+        <v>50</v>
+      </c>
       <c r="N28" s="16"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="7">
-        <f>A28+1</f>
-        <v>28</v>
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="B29" s="8">
+        <v>45363</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>68</v>
+        <v>203</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F29" s="7">
         <v>0.5</v>
       </c>
       <c r="G29" s="11" t="str">
-        <f>CONCATENATE(D29," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW4.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW4.45.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H29" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW4.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW4.45.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I29" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW4.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW4.45.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J29" s="7">
         <v>1</v>
@@ -2277,56 +2461,70 @@
       <c r="K29" s="21">
         <v>2</v>
       </c>
-      <c r="M29" s="12"/>
+      <c r="L29" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M29" s="12">
+        <v>50</v>
+      </c>
       <c r="N29" s="16"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" s="7">
-        <f t="shared" si="2"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="16" t="s">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="B30" s="8">
+        <v>45363</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>71</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F30" s="7">
         <v>0.5</v>
       </c>
       <c r="G30" s="11" t="str">
-        <f>CONCATENATE(D30," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW4.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW4.ASW.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H30" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW4.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW4.ASW.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I30" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW4.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW4.ASW.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J30" s="7">
         <v>1</v>
       </c>
       <c r="K30" s="21">
-        <v>2</v>
-      </c>
-      <c r="M30" s="12"/>
+        <v>1</v>
+      </c>
+      <c r="L30" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M30" s="18"/>
       <c r="N30" s="16"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" s="7">
-        <f t="shared" si="2"/>
-        <v>30</v>
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="B31" s="8">
+        <v>45363</v>
       </c>
       <c r="C31" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="10" t="s">
         <v>73</v>
       </c>
       <c r="E31" s="15" t="s">
@@ -2336,30 +2534,36 @@
         <v>0.5</v>
       </c>
       <c r="G31" s="11" t="str">
-        <f>CONCATENATE(D31," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW4.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW4.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H31" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW4.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW4.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I31" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW4.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW4.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J31" s="7">
         <v>1</v>
       </c>
       <c r="K31" s="21">
         <v>1</v>
+      </c>
+      <c r="L31" s="7">
+        <v>2947</v>
       </c>
       <c r="M31" s="18"/>
       <c r="N31" s="16"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="7">
-        <f t="shared" si="2"/>
-        <v>31</v>
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="B32" s="8">
+        <v>45363</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>74</v>
@@ -2368,36 +2572,44 @@
         <v>75</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F32" s="7">
         <v>0.5</v>
       </c>
       <c r="G32" s="11" t="str">
-        <f>CONCATENATE(D32," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW4.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW5.01.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H32" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW4.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW5.01.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I32" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW4.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW5.01.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J32" s="7">
         <v>1</v>
       </c>
       <c r="K32" s="21">
-        <v>1</v>
-      </c>
-      <c r="M32" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="L32" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M32" s="18">
+        <v>25</v>
+      </c>
       <c r="N32" s="16"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="7">
-        <f t="shared" si="2"/>
-        <v>32</v>
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="B33" s="8">
+        <v>45363</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>76</v>
@@ -2406,36 +2618,42 @@
         <v>77</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F33" s="7">
         <v>0.5</v>
       </c>
       <c r="G33" s="11" t="str">
-        <f>CONCATENATE(D33," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW5.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW5.1.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H33" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW5.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW5.1.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I33" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW5.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW5.1.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J33" s="7">
         <v>1</v>
       </c>
       <c r="K33" s="21">
-        <v>2</v>
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="7">
+        <v>2947</v>
       </c>
       <c r="M33" s="18"/>
       <c r="N33" s="16"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="7">
-        <f t="shared" si="2"/>
-        <v>33</v>
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="B34" s="8">
+        <v>45363</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>78</v>
@@ -2444,36 +2662,44 @@
         <v>79</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F34" s="7">
         <v>0.5</v>
       </c>
       <c r="G34" s="11" t="str">
-        <f>CONCATENATE(D34," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW5.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW5.1.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H34" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW5.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW5.1.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I34" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW5.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW5.1.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J34" s="7">
         <v>1</v>
       </c>
       <c r="K34" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="M34" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="L34" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M34" s="18">
+        <v>25</v>
+      </c>
       <c r="N34" s="16"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" s="7">
-        <f t="shared" si="2"/>
-        <v>34</v>
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="B35" s="8">
+        <v>45363</v>
       </c>
       <c r="C35" s="8" t="s">
         <v>80</v>
@@ -2482,36 +2708,42 @@
         <v>81</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F35" s="7">
         <v>0.5</v>
       </c>
       <c r="G35" s="11" t="str">
-        <f>CONCATENATE(D35," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW5.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW5.45.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H35" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW5.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW5.45.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I35" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW5.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW5.45.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J35" s="7">
         <v>1</v>
       </c>
       <c r="K35" s="21">
-        <v>2</v>
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="7">
+        <v>2947</v>
       </c>
       <c r="M35" s="18"/>
       <c r="N35" s="16"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" s="7">
-        <f t="shared" si="2"/>
-        <v>35</v>
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="B36" s="8">
+        <v>45363</v>
       </c>
       <c r="C36" s="8" t="s">
         <v>82</v>
@@ -2520,36 +2752,44 @@
         <v>83</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F36" s="7">
         <v>0.5</v>
       </c>
-      <c r="G36" s="11" t="str">
-        <f>CONCATENATE(D36," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW5.45.1.01s (01) - Waterfall Plot Sample.dat</v>
+      <c r="G36" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>AW5.45.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H36" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW5.45.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW5.45.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I36" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW5.45.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW5.45.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J36" s="7">
         <v>1</v>
       </c>
       <c r="K36" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="M36" s="18"/>
+        <v>2</v>
+      </c>
+      <c r="L36" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M36" s="18">
+        <v>25</v>
+      </c>
       <c r="N36" s="16"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="7">
-        <f t="shared" si="2"/>
-        <v>36</v>
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="B37" s="8">
+        <v>45363</v>
       </c>
       <c r="C37" s="8" t="s">
         <v>84</v>
@@ -2558,36 +2798,42 @@
         <v>85</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F37" s="7">
         <v>0.5</v>
       </c>
       <c r="G37" s="10" t="str">
-        <f>CONCATENATE(D37," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW5.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW5.ASW.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H37" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW5.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW5.ASW.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I37" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW5.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW5.ASW.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J37" s="7">
         <v>1</v>
       </c>
       <c r="K37" s="21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2947</v>
       </c>
       <c r="M37" s="18"/>
       <c r="N37" s="16"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" s="7">
-        <f t="shared" si="2"/>
-        <v>37</v>
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="B38" s="8">
+        <v>45363</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>86</v>
@@ -2602,36 +2848,42 @@
         <v>0.5</v>
       </c>
       <c r="G38" s="10" t="str">
-        <f>CONCATENATE(D38," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW5.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>AW5.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H38" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW5.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>AW5.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I38" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW5.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>AW5.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J38" s="7">
         <v>1</v>
       </c>
       <c r="K38" s="21">
         <v>1</v>
+      </c>
+      <c r="L38" s="7">
+        <v>2947</v>
       </c>
       <c r="M38" s="18"/>
       <c r="N38" s="16"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" s="7">
-        <f t="shared" si="2"/>
-        <v>38</v>
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="B39" s="8">
+        <v>45351</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>13</v>
@@ -2640,16 +2892,16 @@
         <v>0.5</v>
       </c>
       <c r="G39" s="10" t="str">
-        <f>CONCATENATE(D39," (01) - Waterfall Plot Sample.dat")</f>
-        <v>AW5.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>OW1.01.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H39" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>AW5.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW1.01.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I39" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>AW5.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW1.01.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J39" s="7">
         <v>1</v>
@@ -2657,73 +2909,84 @@
       <c r="K39" s="21">
         <v>1</v>
       </c>
-      <c r="M39" s="18"/>
-      <c r="N39" s="16"/>
+      <c r="L39" s="7">
+        <v>3018</v>
+      </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" s="7">
-        <f t="shared" si="2"/>
-        <v>39</v>
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="B40" s="8">
+        <v>45350</v>
       </c>
       <c r="C40" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="E40" s="15" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F40" s="7">
         <v>0.5</v>
       </c>
       <c r="G40" s="10" t="str">
-        <f>CONCATENATE(D40," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW1.01.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>OW1.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H40" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW1.01.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW1.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I40" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW1.01.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW1.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J40" s="7">
         <v>1</v>
       </c>
       <c r="K40" s="21">
-        <v>1</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="L40" s="7">
+        <v>2971</v>
+      </c>
+      <c r="M40" s="18"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A41" s="7">
-        <f t="shared" si="2"/>
-        <v>40</v>
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="B41" s="8">
+        <v>45351</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>93</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F41" s="7">
         <v>0.5</v>
       </c>
       <c r="G41" s="10" t="str">
-        <f>CONCATENATE(D41," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW1.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>OW1.45.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H41" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW1.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW1.45.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I41" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW1.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW1.45.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J41" s="7">
         <v>1</v>
@@ -2731,12 +2994,18 @@
       <c r="K41" s="21">
         <v>0.1</v>
       </c>
+      <c r="L41" s="7">
+        <v>3018</v>
+      </c>
       <c r="M41" s="18"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A42" s="7">
-        <f t="shared" si="2"/>
-        <v>41</v>
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="B42" s="8">
+        <v>45351</v>
       </c>
       <c r="C42" s="8" t="s">
         <v>94</v>
@@ -2745,35 +3014,41 @@
         <v>95</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F42" s="7">
         <v>0.5</v>
       </c>
       <c r="G42" s="10" t="str">
-        <f>CONCATENATE(D42," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW1.45.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>OW1.45.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H42" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW1.45.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW1.45.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I42" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW1.45.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW1.45.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J42" s="7">
         <v>1</v>
       </c>
       <c r="K42" s="21">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="L42" s="7">
+        <v>3018</v>
       </c>
       <c r="M42" s="18"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="7">
-        <f t="shared" si="2"/>
-        <v>42</v>
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="B43" s="8">
+        <v>45351</v>
       </c>
       <c r="C43" s="8" t="s">
         <v>96</v>
@@ -2782,35 +3057,41 @@
         <v>97</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F43" s="7">
         <v>0.5</v>
       </c>
       <c r="G43" s="10" t="str">
-        <f>CONCATENATE(D43," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW1.45.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>OW1.ASW.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H43" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW1.45.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW1.ASW.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I43" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW1.45.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW1.ASW.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J43" s="7">
         <v>1</v>
       </c>
       <c r="K43" s="21">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="L43" s="7">
+        <v>3018</v>
       </c>
       <c r="M43" s="18"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A44" s="7">
-        <f t="shared" si="2"/>
-        <v>43</v>
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="B44" s="8">
+        <v>45351</v>
       </c>
       <c r="C44" s="8" t="s">
         <v>98</v>
@@ -2825,29 +3106,35 @@
         <v>0.5</v>
       </c>
       <c r="G44" s="10" t="str">
-        <f>CONCATENATE(D44," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW1.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>OW1.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H44" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW1.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW1.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I44" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW1.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW1.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J44" s="7">
         <v>1</v>
       </c>
       <c r="K44" s="21">
         <v>1</v>
+      </c>
+      <c r="L44" s="7">
+        <v>3018</v>
       </c>
       <c r="M44" s="18"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A45" s="7">
-        <f t="shared" si="2"/>
-        <v>44</v>
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="B45" s="8">
+        <v>45351</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>100</v>
@@ -2856,35 +3143,41 @@
         <v>101</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F45" s="7">
         <v>0.5</v>
       </c>
       <c r="G45" s="10" t="str">
-        <f>CONCATENATE(D45," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW1.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>OW2.01.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H45" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW1.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW2.01.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I45" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW1.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW2.01.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J45" s="7">
         <v>1</v>
       </c>
       <c r="K45" s="21">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L45" s="7">
+        <v>3018</v>
       </c>
       <c r="M45" s="18"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A46" s="7">
-        <f t="shared" si="2"/>
-        <v>45</v>
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="B46" s="8">
+        <v>45351</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>102</v>
@@ -2893,35 +3186,41 @@
         <v>103</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="F46" s="7">
         <v>0.5</v>
       </c>
       <c r="G46" s="10" t="str">
-        <f>CONCATENATE(D46," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW2.01.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="0"/>
+        <v>OW2.01.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H46" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW2.01.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW2.01.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I46" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW2.01.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW2.01.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J46" s="7">
         <v>1</v>
       </c>
       <c r="K46" s="21">
-        <v>0.1</v>
+        <v>1</v>
+      </c>
+      <c r="L46" s="7">
+        <v>3018</v>
       </c>
       <c r="M46" s="18"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A47" s="7">
-        <f t="shared" si="2"/>
-        <v>46</v>
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="B47" s="8">
+        <v>45352</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>104</v>
@@ -2930,35 +3229,38 @@
         <v>105</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F47" s="7">
         <v>0.5</v>
       </c>
-      <c r="G47" s="10" t="str">
-        <f>CONCATENATE(D47," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW2.01.1s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H47" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW2.01.1s (01) - Waterfall Plot Blank.dat</v>
-      </c>
-      <c r="I47" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW2.01.1s (01) - Abs Spectra Graphs.dat</v>
+      <c r="G47" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="J47" s="7">
         <v>1</v>
       </c>
       <c r="K47" s="21">
-        <v>1</v>
+        <v>0.1</v>
+      </c>
+      <c r="L47" s="7">
+        <v>2957</v>
       </c>
       <c r="M47" s="18"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A48" s="7">
-        <f t="shared" si="2"/>
-        <v>47</v>
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="B48" s="8">
+        <v>45352</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>106</v>
@@ -2967,32 +3269,40 @@
         <v>107</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="F48" s="7">
         <v>0.5</v>
       </c>
-      <c r="G48" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H48" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>193</v>
+      <c r="G48" s="10" t="str">
+        <f>CONCATENATE(D48," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW2.1.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H48" s="11" t="str">
+        <f t="shared" si="1"/>
+        <v>OW2.1.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I48" s="11" t="str">
+        <f t="shared" si="2"/>
+        <v>OW2.1.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J48" s="7">
         <v>1</v>
       </c>
       <c r="K48" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="M48" s="18"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L48" s="7">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="7">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="B49" s="8">
+        <v>45352</v>
       </c>
       <c r="C49" s="8" t="s">
         <v>108</v>
@@ -3001,34 +3311,40 @@
         <v>109</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F49" s="7">
         <v>0.5</v>
       </c>
       <c r="G49" s="10" t="str">
         <f>CONCATENATE(D49," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW2.1.1s (01) - Waterfall Plot Sample.dat</v>
+        <v>OW2.1.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H49" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW2.1.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW2.1.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I49" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW2.1.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW2.1.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J49" s="7">
         <v>1</v>
       </c>
       <c r="K49" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L49" s="7">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="7">
-        <f t="shared" si="2"/>
-        <v>49</v>
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="B50" s="8">
+        <v>45351</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>110</v>
@@ -3037,40 +3353,45 @@
         <v>111</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F50" s="7">
         <v>0.5</v>
       </c>
-      <c r="G50" s="10" t="str">
-        <f>CONCATENATE(D50," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW2.1.2s (01) - Waterfall Plot Sample.dat</v>
+      <c r="G50" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="H50" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW2.1.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW2.45.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I50" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW2.1.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW2.45.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J50" s="7">
         <v>1</v>
       </c>
       <c r="K50" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L50" s="7">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="7">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="B51" s="8">
+        <v>45352</v>
       </c>
       <c r="C51" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>13</v>
@@ -3078,16 +3399,17 @@
       <c r="F51" s="7">
         <v>0.5</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>119</v>
+      <c r="G51" s="10" t="str">
+        <f t="shared" ref="G51:G65" si="4">CONCATENATE(D51," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW2.ASW.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H51" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW2.45.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW2.ASW.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I51" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW2.45.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW2.ASW.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J51" s="7">
         <v>1</v>
@@ -3095,17 +3417,23 @@
       <c r="K51" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L51" s="7">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="7">
-        <f t="shared" si="2"/>
-        <v>51</v>
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="B52" s="8">
+        <v>45352</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>13</v>
@@ -3114,16 +3442,16 @@
         <v>0.5</v>
       </c>
       <c r="G52" s="10" t="str">
-        <f>CONCATENATE(D52," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW2.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW2.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H52" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW2.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW2.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I52" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW2.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW2.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J52" s="7">
         <v>1</v>
@@ -3131,17 +3459,23 @@
       <c r="K52" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L52" s="7">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="7">
-        <f t="shared" si="2"/>
-        <v>52</v>
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="B53" s="8">
+        <v>45362</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>13</v>
@@ -3150,16 +3484,16 @@
         <v>0.5</v>
       </c>
       <c r="G53" s="10" t="str">
-        <f>CONCATENATE(D53," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW2.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW3.01.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H53" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW2.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW3.01.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I53" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW2.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW3.01.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J53" s="7">
         <v>1</v>
@@ -3167,11 +3501,17 @@
       <c r="K53" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L53" s="7">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="7">
-        <f t="shared" si="2"/>
-        <v>53</v>
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="B54" s="8">
+        <v>45362</v>
       </c>
       <c r="C54" s="8" t="s">
         <v>122</v>
@@ -3180,34 +3520,43 @@
         <v>123</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F54" s="7">
         <v>0.5</v>
       </c>
       <c r="G54" s="10" t="str">
-        <f>CONCATENATE(D54," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW3.01.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW3.01.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H54" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW3.01.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW3.01.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I54" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW3.01.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW3.01.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J54" s="7">
         <v>1</v>
       </c>
       <c r="K54" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L54" s="7">
+        <v>2910</v>
+      </c>
+      <c r="M54" s="19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="7">
-        <f t="shared" si="2"/>
-        <v>54</v>
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+      <c r="B55" s="8">
+        <v>45362</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>124</v>
@@ -3216,34 +3565,40 @@
         <v>125</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F55" s="7">
         <v>0.5</v>
       </c>
       <c r="G55" s="10" t="str">
-        <f>CONCATENATE(D55," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW3.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW3.45.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H55" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW3.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW3.45.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I55" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW3.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW3.45.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J55" s="7">
         <v>1</v>
       </c>
       <c r="K55" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="L55" s="7">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="7">
-        <f t="shared" si="2"/>
-        <v>55</v>
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="B56" s="8">
+        <v>45362</v>
       </c>
       <c r="C56" s="8" t="s">
         <v>126</v>
@@ -3252,34 +3607,43 @@
         <v>127</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F56" s="7">
         <v>0.5</v>
       </c>
       <c r="G56" s="10" t="str">
-        <f>CONCATENATE(D56," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW3.45.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW3.45.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H56" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW3.45.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW3.45.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I56" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW3.45.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW3.45.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J56" s="7">
         <v>1</v>
       </c>
       <c r="K56" s="21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L56" s="7">
+        <v>2910</v>
+      </c>
+      <c r="M56" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="7">
-        <f t="shared" si="2"/>
-        <v>56</v>
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="B57" s="8">
+        <v>45362</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>128</v>
@@ -3288,34 +3652,40 @@
         <v>129</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F57" s="7">
         <v>0.5</v>
       </c>
       <c r="G57" s="10" t="str">
-        <f>CONCATENATE(D57," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW3.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW3.ASW.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H57" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW3.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW3.ASW.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I57" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW3.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW3.ASW.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J57" s="7">
         <v>1</v>
       </c>
       <c r="K57" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="L57" s="7">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="7">
-        <f t="shared" si="2"/>
-        <v>57</v>
+        <f t="shared" si="3"/>
+        <v>58</v>
+      </c>
+      <c r="B58" s="8">
+        <v>45362</v>
       </c>
       <c r="C58" s="8" t="s">
         <v>130</v>
@@ -3324,22 +3694,22 @@
         <v>131</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F58" s="7">
         <v>0.5</v>
       </c>
       <c r="G58" s="10" t="str">
-        <f>CONCATENATE(D58," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW3.ASW.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW3.DI.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H58" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW3.ASW.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW3.DI.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I58" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW3.ASW.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW3.DI.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J58" s="7">
         <v>1</v>
@@ -3347,11 +3717,17 @@
       <c r="K58" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L58" s="7">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="7">
-        <f t="shared" si="2"/>
-        <v>58</v>
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="B59" s="8">
+        <v>45363</v>
       </c>
       <c r="C59" s="8" t="s">
         <v>132</v>
@@ -3360,22 +3736,22 @@
         <v>133</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F59" s="7">
         <v>0.5</v>
       </c>
       <c r="G59" s="10" t="str">
-        <f>CONCATENATE(D59," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW3.DI.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW4.01.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H59" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW3.DI.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW4.01.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I59" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW3.DI.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW4.01.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J59" s="7">
         <v>1</v>
@@ -3383,11 +3759,17 @@
       <c r="K59" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L59" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="7">
-        <f t="shared" si="2"/>
-        <v>59</v>
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="B60" s="8">
+        <v>45363</v>
       </c>
       <c r="C60" s="8" t="s">
         <v>134</v>
@@ -3396,34 +3778,43 @@
         <v>135</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F60" s="7">
         <v>0.5</v>
       </c>
       <c r="G60" s="10" t="str">
-        <f>CONCATENATE(D60," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW4.01.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW4.01.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H60" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW4.01.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW4.01.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I60" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW4.01.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW4.01.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J60" s="7">
         <v>1</v>
       </c>
       <c r="K60" s="21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L60" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M60" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="7">
-        <f t="shared" si="2"/>
-        <v>60</v>
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="B61" s="8">
+        <v>45363</v>
       </c>
       <c r="C61" s="8" t="s">
         <v>136</v>
@@ -3432,22 +3823,22 @@
         <v>137</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F61" s="7">
         <v>0.5</v>
       </c>
       <c r="G61" s="10" t="str">
-        <f>CONCATENATE(D61," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW4.01.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW4.1.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H61" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW4.01.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW4.1.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I61" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW4.01.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW4.1.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J61" s="7">
         <v>1</v>
@@ -3455,11 +3846,20 @@
       <c r="K61" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L61" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M61" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="7">
-        <f t="shared" si="2"/>
-        <v>61</v>
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="B62" s="8">
+        <v>45363</v>
       </c>
       <c r="C62" s="8" t="s">
         <v>138</v>
@@ -3468,34 +3868,40 @@
         <v>139</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" s="7">
         <v>0.5</v>
       </c>
       <c r="G62" s="10" t="str">
-        <f>CONCATENATE(D62," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW4.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW4.45.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H62" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW4.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW4.45.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I62" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW4.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW4.45.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J62" s="7">
         <v>1</v>
       </c>
       <c r="K62" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="L62" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="7">
-        <f t="shared" si="2"/>
-        <v>62</v>
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="B63" s="8">
+        <v>45363</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>140</v>
@@ -3504,34 +3910,43 @@
         <v>141</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F63" s="7">
         <v>0.5</v>
       </c>
       <c r="G63" s="10" t="str">
-        <f>CONCATENATE(D63," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW4.45.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW4.45.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H63" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW4.45.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW4.45.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I63" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW4.45.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW4.45.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J63" s="7">
         <v>1</v>
       </c>
       <c r="K63" s="21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L63" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M63" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="7">
-        <f t="shared" si="2"/>
-        <v>63</v>
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="B64" s="8">
+        <v>45363</v>
       </c>
       <c r="C64" s="8" t="s">
         <v>142</v>
@@ -3540,34 +3955,40 @@
         <v>143</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>121</v>
+        <v>13</v>
       </c>
       <c r="F64" s="7">
         <v>0.5</v>
       </c>
       <c r="G64" s="10" t="str">
-        <f>CONCATENATE(D64," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW4.45.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW4.ASW.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H64" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW4.45.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW4.ASW.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I64" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW4.45.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW4.ASW.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J64" s="7">
         <v>1</v>
       </c>
       <c r="K64" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="L64" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="7">
-        <f t="shared" si="2"/>
-        <v>64</v>
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="B65" s="8">
+        <v>45363</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>144</v>
@@ -3582,16 +4003,16 @@
         <v>0.5</v>
       </c>
       <c r="G65" s="10" t="str">
-        <f>CONCATENATE(D65," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW4.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="4"/>
+        <v>OW4.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H65" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW4.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="1"/>
+        <v>OW4.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I65" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW4.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="2"/>
+        <v>OW4.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -3599,11 +4020,17 @@
       <c r="K65" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L65" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="7">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <f t="shared" si="3"/>
+        <v>66</v>
+      </c>
+      <c r="B66" s="8">
+        <v>45363</v>
       </c>
       <c r="C66" s="8" t="s">
         <v>146</v>
@@ -3612,106 +4039,127 @@
         <v>147</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="F66" s="7">
         <v>0.5</v>
       </c>
       <c r="G66" s="10" t="str">
-        <f>CONCATENATE(D66," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW4.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" ref="G66:G90" si="5">CONCATENATE(D66," (01) - Waterfall Plot Sample.dat")</f>
+        <v>OW5.01.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H66" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>OW4.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" ref="H66:H90" si="6">CONCATENATE(D66," (01) - Waterfall Plot Blank.dat")</f>
+        <v>OW5.01.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I66" s="11" t="str">
-        <f t="shared" si="1"/>
-        <v>OW4.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" ref="I66:I90" si="7">CONCATENATE(D66," (01) - Abs Spectra Graphs.dat")</f>
+        <v>OW5.01.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J66" s="7">
         <v>1</v>
       </c>
       <c r="K66" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="L66" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="7">
-        <f t="shared" si="2"/>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B67" s="8">
+        <v>45363</v>
       </c>
       <c r="C67" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D67" s="10" t="s">
-        <v>149</v>
-      </c>
       <c r="E67" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F67" s="7">
         <v>0.5</v>
       </c>
       <c r="G67" s="10" t="str">
-        <f t="shared" ref="G67:G88" si="3">CONCATENATE(D67," (01) - Waterfall Plot Sample.dat")</f>
-        <v>OW5.01.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="5"/>
+        <v>OW5.01.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H67" s="11" t="str">
-        <f t="shared" ref="H67:H88" si="4">CONCATENATE(D67," (01) - Waterfall Plot Blank.dat")</f>
-        <v>OW5.01.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="6"/>
+        <v>OW5.01.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I67" s="11" t="str">
-        <f t="shared" ref="I67:I88" si="5">CONCATENATE(D67," (01) - Abs Spectra Graphs.dat")</f>
-        <v>OW5.01.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>OW5.01.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J67" s="7">
         <v>1</v>
       </c>
       <c r="K67" s="21">
+        <v>2</v>
+      </c>
+      <c r="L67" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M67" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" s="7">
+        <f t="shared" ref="A68:A90" si="8">A67+1</f>
+        <v>68</v>
+      </c>
+      <c r="B68" s="8">
+        <v>45363</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G68" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H68" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>OW5.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I68" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>OW5.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J68" s="7">
+        <v>1</v>
+      </c>
+      <c r="K68" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
-        <f t="shared" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E68" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F68" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G68" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW5.01.2.2s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H68" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW5.01.2.2s (01) - Waterfall Plot Blank.dat</v>
-      </c>
-      <c r="I68" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>OW5.01.2.2s (01) - Abs Spectra Graphs.dat</v>
-      </c>
-      <c r="J68" s="7">
-        <v>1</v>
-      </c>
-      <c r="K68" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L68" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="7">
-        <f t="shared" ref="A69:A88" si="6">A68+1</f>
-        <v>68</v>
+        <f t="shared" si="8"/>
+        <v>69</v>
+      </c>
+      <c r="B69" s="8">
+        <v>45363</v>
       </c>
       <c r="C69" s="8" t="s">
         <v>152</v>
@@ -3720,34 +4168,43 @@
         <v>153</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F69" s="7">
         <v>0.5</v>
       </c>
       <c r="G69" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW5.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="5"/>
+        <v>OW5.1.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H69" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW5.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="6"/>
+        <v>OW5.1.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I69" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>OW5.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>OW5.1.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J69" s="7">
         <v>1</v>
       </c>
       <c r="K69" s="21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L69" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M69" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="7">
-        <f t="shared" si="6"/>
-        <v>69</v>
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="B70" s="8">
+        <v>45363</v>
       </c>
       <c r="C70" s="8" t="s">
         <v>154</v>
@@ -3756,34 +4213,40 @@
         <v>155</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F70" s="7">
         <v>0.5</v>
       </c>
       <c r="G70" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW5.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="5"/>
+        <v>OW5.45.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H70" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW5.1.2.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="6"/>
+        <v>OW5.45.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I70" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>OW5.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>OW5.45.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J70" s="7">
         <v>1</v>
       </c>
       <c r="K70" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="L70" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="7">
-        <f t="shared" si="6"/>
-        <v>70</v>
+        <f t="shared" si="8"/>
+        <v>71</v>
+      </c>
+      <c r="B71" s="8">
+        <v>45363</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>156</v>
@@ -3792,76 +4255,91 @@
         <v>157</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F71" s="7">
         <v>0.5</v>
       </c>
       <c r="G71" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW5.45.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="5"/>
+        <v>OW5.45.2.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H71" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW5.45.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="6"/>
+        <v>OW5.45.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I71" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>OW5.45.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>OW5.45.2.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J71" s="7">
         <v>1</v>
       </c>
       <c r="K71" s="21">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L71" s="7">
+        <v>2947</v>
+      </c>
+      <c r="M71" s="19">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="7">
-        <f t="shared" si="6"/>
-        <v>71</v>
+        <f t="shared" si="8"/>
+        <v>72</v>
+      </c>
+      <c r="B72" s="8">
+        <v>45363</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>158</v>
       </c>
       <c r="D72" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F72" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G72" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>OW5.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H72" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>OW5.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I72" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>OW5.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J72" s="7">
+        <v>1</v>
+      </c>
+      <c r="K72" s="21">
+        <v>1</v>
+      </c>
+      <c r="L72" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" s="7">
+        <f t="shared" si="8"/>
+        <v>73</v>
+      </c>
+      <c r="B73" s="8">
+        <v>45363</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="E72" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F72" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G72" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW5.45.2.2s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H72" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW5.45.2.2s (01) - Waterfall Plot Blank.dat</v>
-      </c>
-      <c r="I72" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>OW5.45.2.2s (01) - Abs Spectra Graphs.dat</v>
-      </c>
-      <c r="J72" s="7">
-        <v>1</v>
-      </c>
-      <c r="K72" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
-        <f t="shared" si="6"/>
-        <v>72</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>160</v>
-      </c>
       <c r="D73" s="10" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>13</v>
@@ -3870,16 +4348,16 @@
         <v>0.5</v>
       </c>
       <c r="G73" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW5.ASW.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="5"/>
+        <v>OW5.DI.1s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H73" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW5.ASW.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="6"/>
+        <v>OW5.DI.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I73" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>OW5.ASW.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>OW5.DI.1s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J73" s="7">
         <v>1</v>
@@ -3887,47 +4365,59 @@
       <c r="K73" s="21">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L73" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="7">
-        <f t="shared" si="6"/>
-        <v>73</v>
+        <f t="shared" si="8"/>
+        <v>74</v>
+      </c>
+      <c r="B74" s="8">
+        <v>45350</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D74" s="10" t="s">
         <v>163</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F74" s="7">
         <v>0.5</v>
       </c>
       <c r="G74" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW5.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="5"/>
+        <v>OxicW1.1.2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H74" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW5.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="6"/>
+        <v>OxicW1.1.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I74" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>OW5.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>OxicW1.1.2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J74" s="7">
         <v>1</v>
       </c>
       <c r="K74" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+      <c r="L74" s="7">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="7">
-        <f t="shared" si="6"/>
-        <v>74</v>
+        <f t="shared" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="B75" s="8">
+        <v>45362</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>164</v>
@@ -3936,34 +4426,40 @@
         <v>165</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F75" s="7">
         <v>0.5</v>
       </c>
       <c r="G75" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OxicW1.1.2s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="5"/>
+        <v>PosT11Mar01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H75" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OxicW1.1.2s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="6"/>
+        <v>PosT11Mar01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I75" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>OxicW1.1.2s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>PosT11Mar01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J75" s="7">
         <v>1</v>
       </c>
       <c r="K75" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0.1</v>
+      </c>
+      <c r="L75" s="7">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="7">
-        <f t="shared" si="6"/>
-        <v>75</v>
+        <f t="shared" si="8"/>
+        <v>76</v>
+      </c>
+      <c r="B76" s="8">
+        <v>45363</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>166</v>
@@ -3972,22 +4468,19 @@
         <v>167</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F76" s="7">
         <v>0.5</v>
       </c>
-      <c r="G76" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>PosT11Mar01s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H76" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>PosT11Mar01s (01) - Waterfall Plot Blank.dat</v>
-      </c>
-      <c r="I76" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>PosT11Mar01s (01) - Abs Spectra Graphs.dat</v>
+      <c r="G76" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>191</v>
       </c>
       <c r="J76" s="7">
         <v>1</v>
@@ -3995,32 +4488,41 @@
       <c r="K76" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L76" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="7">
+        <f t="shared" si="8"/>
+        <v>77</v>
+      </c>
+      <c r="B77" s="8">
+        <v>45352</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F77" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G77" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>PosT01Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H77" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>76</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E77" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F77" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="H77" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>195</v>
+        <v>PosT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I77" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>PosT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J77" s="7">
         <v>1</v>
@@ -4028,35 +4530,41 @@
       <c r="K77" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L77" s="7">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="7">
+        <f t="shared" si="8"/>
+        <v>78</v>
+      </c>
+      <c r="B78" s="8">
+        <v>45351</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F78" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G78" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>PosT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H78" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="E78" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F78" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G78" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>PoT01Mar2401s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H78" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>PoT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PosT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I78" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>PoT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>PosT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J78" s="7">
         <v>1</v>
@@ -4064,11 +4572,17 @@
       <c r="K78" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L78" s="7">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="7">
-        <f t="shared" si="6"/>
-        <v>78</v>
+        <f t="shared" si="8"/>
+        <v>79</v>
+      </c>
+      <c r="B79" s="8">
+        <v>45352</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>170</v>
@@ -4077,22 +4591,22 @@
         <v>171</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F79" s="7">
         <v>0.5</v>
       </c>
       <c r="G79" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>PoT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
+        <f t="shared" si="5"/>
+        <v>PreT01Mar2401s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H79" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>PoT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
+        <f t="shared" si="6"/>
+        <v>PreT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I79" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>PoT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>PreT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J79" s="7">
         <v>1</v>
@@ -4100,35 +4614,41 @@
       <c r="K79" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L79" s="7">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="7">
+        <f t="shared" si="8"/>
+        <v>80</v>
+      </c>
+      <c r="B80" s="8">
+        <v>45358</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G80" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT07Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H80" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>79</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="E80" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F80" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G80" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>PreT01Mar2401s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H80" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>PreT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PreT07Mar2401s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I80" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>PreT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>PreT07Mar2401s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J80" s="7">
         <v>1</v>
@@ -4136,35 +4656,41 @@
       <c r="K80" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L80" s="7">
+        <v>2863</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="7">
+        <f t="shared" si="8"/>
+        <v>81</v>
+      </c>
+      <c r="B81" s="8">
+        <v>45362</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G81" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT11Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H81" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="D81" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="E81" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F81" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G81" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>PreT07Mar2401s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H81" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>PreT07Mar2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PreT11Mar2401s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I81" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>PreT07Mar2401s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>PreT11Mar2401s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J81" s="7">
         <v>1</v>
@@ -4172,35 +4698,38 @@
       <c r="K81" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L81" s="7">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="7">
-        <f t="shared" si="6"/>
-        <v>81</v>
+        <f t="shared" si="8"/>
+        <v>82</v>
+      </c>
+      <c r="B82" s="8">
+        <v>45363</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="F82" s="7">
         <v>0.5</v>
       </c>
-      <c r="G82" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>PreT11Mar2401s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H82" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>PreT11Mar2401s (01) - Waterfall Plot Blank.dat</v>
-      </c>
-      <c r="I82" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>PreT11Mar2401s (01) - Abs Spectra Graphs.dat</v>
+      <c r="G82" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>193</v>
       </c>
       <c r="J82" s="7">
         <v>1</v>
@@ -4208,104 +4737,125 @@
       <c r="K82" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L82" s="7">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="7">
+        <f t="shared" si="8"/>
+        <v>83</v>
+      </c>
+      <c r="B83" s="8">
+        <v>45350</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F83" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G83" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT28Feb241s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H83" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-      <c r="C83" s="8" t="s">
+        <v>PreT28Feb241s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I83" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>PreT28Feb241s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J83" s="7">
+        <v>1</v>
+      </c>
+      <c r="K83" s="21">
+        <v>1</v>
+      </c>
+      <c r="L83" s="7">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" s="7">
+        <f t="shared" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="B84" s="8">
+        <v>45351</v>
+      </c>
+      <c r="C84" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D84" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="E83" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F83" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="H83" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="J83" s="7">
-        <v>1</v>
-      </c>
-      <c r="K83" s="21">
+      <c r="E84" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F84" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G84" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>PreT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H84" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>PreT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I84" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>PreT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J84" s="7">
+        <v>1</v>
+      </c>
+      <c r="K84" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
+      <c r="L84" s="7">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" s="7">
+        <f t="shared" si="8"/>
+        <v>85</v>
+      </c>
+      <c r="B85" s="8">
+        <v>45362</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G85" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>OW3.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H85" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>83</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D84" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="E84" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F84" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G84" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>PreT28Feb241s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H84" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>PreT28Feb241s (01) - Waterfall Plot Blank.dat</v>
-      </c>
-      <c r="I84" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>PreT28Feb241s (01) - Abs Spectra Graphs.dat</v>
-      </c>
-      <c r="J84" s="7">
-        <v>1</v>
-      </c>
-      <c r="K84" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A85" s="7">
-        <f t="shared" si="6"/>
-        <v>84</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="D85" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E85" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F85" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G85" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>PreT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H85" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>PreT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>OW3.1.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I85" s="11" t="str">
-        <f t="shared" si="5"/>
-        <v>PreT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
+        <f t="shared" si="7"/>
+        <v>OW3.1.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J85" s="7">
         <v>1</v>
@@ -4313,92 +4863,234 @@
       <c r="K85" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L85" s="7">
+        <v>2910</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="7">
+        <f t="shared" si="8"/>
+        <v>86</v>
+      </c>
+      <c r="B86" s="8">
+        <v>45362</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G86" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>OW3.1.2.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H86" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="E86" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="F86" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G86" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW3.1.1.01s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H86" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW3.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <v>OW3.1.2.2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I86" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>OW3.1.2.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J86" s="7">
+        <v>1</v>
+      </c>
+      <c r="K86" s="21">
+        <v>2</v>
+      </c>
+      <c r="L86" s="7">
+        <v>2910</v>
+      </c>
+      <c r="M86" s="19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" s="7">
+        <f t="shared" si="8"/>
+        <v>87</v>
+      </c>
+      <c r="B87" s="8">
+        <v>45379</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D87" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E87" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F87" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G87" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>OW3.1.1.01s (01) - Abs Spectra Graphs.dat</v>
-      </c>
-      <c r="J86" s="7">
-        <v>1</v>
-      </c>
-      <c r="K86" s="21">
+        <v>PreT28Mar24 (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H87" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>PreT28Mar24 (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I87" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>PreT28Mar24 (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J87" s="7">
+        <v>1</v>
+      </c>
+      <c r="K87" s="21">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A87" s="7">
+      <c r="L87" s="7">
+        <v>3035.02</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A88" s="7">
+        <f t="shared" si="8"/>
+        <v>88</v>
+      </c>
+      <c r="B88" s="8">
+        <v>45379</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D88" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F88" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G88" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>PosT28Mar24 (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H88" s="10" t="str">
         <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="D87" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E87" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F87" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="G87" s="10" t="str">
-        <f t="shared" si="3"/>
-        <v>OW3.1.2.2s (01) - Waterfall Plot Sample.dat</v>
-      </c>
-      <c r="H87" s="11" t="str">
-        <f t="shared" si="4"/>
-        <v>OW3.1.2.2s (01) - Waterfall Plot Blank.dat</v>
-      </c>
-      <c r="I87" s="11" t="str">
+        <v>PosT28Mar24 (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I88" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>PosT28Mar24 (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J88" s="7">
+        <v>1</v>
+      </c>
+      <c r="K88" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="L88" s="7">
+        <v>3035.02</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A89" s="7">
+        <f t="shared" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="B89" s="8">
+        <v>45379</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F89" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G89" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>OW3.1.2.2s (01) - Abs Spectra Graphs.dat</v>
-      </c>
-      <c r="J87" s="7">
-        <v>1</v>
-      </c>
-      <c r="K87" s="21">
+        <v>AW4.45.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H89" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>AW4.45.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I89" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>AW4.45.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J89" s="7">
+        <v>1</v>
+      </c>
+      <c r="K89" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="L89" s="7">
+        <v>3035.02</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A90" s="7">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="B90" s="8">
+        <v>45379</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D90" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F90" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G90" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>OW4.1.2s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H90" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>OW4.1.2s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I90" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>OW4.1.2s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J90" s="7">
+        <v>1</v>
+      </c>
+      <c r="K90" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E88" s="15"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11"/>
+      <c r="L90" s="7">
+        <v>3035.02</v>
+      </c>
+      <c r="M90" s="19">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N49">
-    <sortCondition ref="A2:A49"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N48">
+    <sortCondition ref="A2:A48"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1" xr:uid="{5FA5E408-7820-4560-9448-59549073E559}"/>
-    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576 D68" xr:uid="{91B65685-9DD5-4A81-A397-EEC12A8E737E}">
+    <dataValidation type="textLength" operator="lessThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D67 C2:C1048576" xr:uid="{91B65685-9DD5-4A81-A397-EEC12A8E737E}">
       <formula1>60</formula1>
     </dataValidation>
   </dataValidations>

--- a/1-data/CDOM/EEM_Template/SampleLog.xlsx
+++ b/1-data/CDOM/EEM_Template/SampleLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olou646\tempest-exp-feom-ConnorSULI\1-data\CDOM\EEM_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35539644-E5E7-4FEC-9EAD-3A5268C95F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D5E303-F6FE-4D62-8FAF-CC5F58080A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="205">
   <si>
     <t>index</t>
   </si>
@@ -155,9 +155,6 @@
     <t>AW1.1.1s</t>
   </si>
   <si>
-    <t>AW1.1.01s</t>
-  </si>
-  <si>
     <t>AW1.01.1s</t>
   </si>
   <si>
@@ -248,9 +245,6 @@
     <t>AW3.45.3</t>
   </si>
   <si>
-    <t>AW3.45.4.2s</t>
-  </si>
-  <si>
     <t>AW3.ASW</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>OW1.01.1s</t>
   </si>
   <si>
-    <t>OW1.1.01s</t>
-  </si>
-  <si>
     <t>OW1.45</t>
   </si>
   <si>
@@ -431,12 +422,6 @@
     <t>OW2.DI.1s</t>
   </si>
   <si>
-    <t>OW2.1.01s (02) - Waterfall Plot Sample.dat")</t>
-  </si>
-  <si>
-    <t>OW2.45.1s (01) - Waterfall Plot Sample.dat")</t>
-  </si>
-  <si>
     <t>01s</t>
   </si>
   <si>
@@ -518,9 +503,6 @@
     <t>OW4.DI</t>
   </si>
   <si>
-    <t>OW4.DI.1s</t>
-  </si>
-  <si>
     <t>OW5.01</t>
   </si>
   <si>
@@ -578,15 +560,9 @@
     <t>PostTea11Mar24</t>
   </si>
   <si>
-    <t>PosT11Mar01s</t>
-  </si>
-  <si>
     <t>PostTea12Mar24</t>
   </si>
   <si>
-    <t>PosT12Mar2401s</t>
-  </si>
-  <si>
     <t>PostTea29Feb24</t>
   </si>
   <si>
@@ -596,27 +572,15 @@
     <t>PreTea01Mar24</t>
   </si>
   <si>
-    <t>PreT01Mar2401s</t>
-  </si>
-  <si>
     <t>PreTea07Mar24</t>
   </si>
   <si>
-    <t>PreT07Mar2401s</t>
-  </si>
-  <si>
     <t>PreTea11Mar24</t>
   </si>
   <si>
-    <t>PreT11Mar2401s</t>
-  </si>
-  <si>
     <t>PreTea12Mar24</t>
   </si>
   <si>
-    <t>PreT12Mar2401s</t>
-  </si>
-  <si>
     <t>PreTea28Feb24</t>
   </si>
   <si>
@@ -626,9 +590,6 @@
     <t>PreTea29Feb24</t>
   </si>
   <si>
-    <t>PreT29Feb2401s</t>
-  </si>
-  <si>
     <t>OW3.1</t>
   </si>
   <si>
@@ -641,36 +602,12 @@
     <t>OW3.1.2.2s</t>
   </si>
   <si>
-    <t>PreT12Mar2401s (2) - Waterfall Plot Sample.dat")</t>
-  </si>
-  <si>
     <t>PosT12Mar2401s (2) - Waterfall Plot Sample.dat")</t>
   </si>
   <si>
-    <t>OW2.1.01s (02) - Waterfall Plot Blank.dat")</t>
-  </si>
-  <si>
-    <t>OW2.1.01s (02) - Abs Spectra Graphs.dat")</t>
-  </si>
-  <si>
     <t>PosT12Mar2401s (2) - Waterfall Plot Blank.dat")</t>
   </si>
   <si>
-    <t>PosT12Mar2401s (2) - Abs Spectra Graphs.dat")</t>
-  </si>
-  <si>
-    <t>PreT12Mar2401s (2) - Waterfall Plot Blank.dat")</t>
-  </si>
-  <si>
-    <t>PreT12Mar2401s (2) - Abs Spectra Graphs.dat")</t>
-  </si>
-  <si>
-    <t>PosT29Feb2401s</t>
-  </si>
-  <si>
-    <t>PosT01Mar2401s</t>
-  </si>
-  <si>
     <t>PreTea28Mar24</t>
   </si>
   <si>
@@ -693,6 +630,72 @@
   </si>
   <si>
     <t>AW4.45.1</t>
+  </si>
+  <si>
+    <t>PoT01Mar2401s</t>
+  </si>
+  <si>
+    <t>PoT29Feb2401s</t>
+  </si>
+  <si>
+    <t>PreT07Mar2401</t>
+  </si>
+  <si>
+    <t>OxicW1.1.01s</t>
+  </si>
+  <si>
+    <t>PreT29Feb201s</t>
+  </si>
+  <si>
+    <t>PosT12Mar2401s (2) - Abs Spectra Graphs.dat</t>
+  </si>
+  <si>
+    <t>PreT12Mar2401s (2) - Abs Spectra Graphs.dat</t>
+  </si>
+  <si>
+    <t>PreT12Mar2401s (2) - Waterfall Plot Blank.dat</t>
+  </si>
+  <si>
+    <t>PreT12Mar2401s (2) - Waterfall Plot Sample.dat</t>
+  </si>
+  <si>
+    <t>OW2.1.01s (02) - Abs Spectra Graphs.dat</t>
+  </si>
+  <si>
+    <t>OW2.1.01s (02) - Waterfall Plot Blank.dat</t>
+  </si>
+  <si>
+    <t>OW2.1.01s (02) - Waterfall Plot Sample.dat</t>
+  </si>
+  <si>
+    <t>AW3.45.4 2s</t>
+  </si>
+  <si>
+    <t>AW.01.1.01s</t>
+  </si>
+  <si>
+    <t>PreT01Mar201s</t>
+  </si>
+  <si>
+    <t>PreT01Mar201s (01) - Waterfall Plot Sample.dat</t>
+  </si>
+  <si>
+    <t>PreT07Mar2401s (01) - Waterfall Plot Sample.dat</t>
+  </si>
+  <si>
+    <t>PoT01Mar24 (01) - Waterfall Plot Sample.dat</t>
+  </si>
+  <si>
+    <t>PreT01s</t>
+  </si>
+  <si>
+    <t>PosT01s</t>
+  </si>
+  <si>
+    <t>OW.1.1.01s</t>
+  </si>
+  <si>
+    <t>OW2.45.1s (01) - Waterfall Plot Sample.dat</t>
   </si>
 </sst>
 </file>
@@ -1156,10 +1159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N90"/>
+  <dimension ref="A1:N91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
+    <sheetView tabSelected="1" topLeftCell="B38" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1233,7 +1236,7 @@
         <v>15</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>13</v>
@@ -1277,25 +1280,25 @@
         <v>16</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F3" s="7">
         <v>0.5</v>
       </c>
       <c r="G3" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>AW1.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <v>AW.01.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H3" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>AW1.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <v>AW.01.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I3" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AW1.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <v>AW.01.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -1494,13 +1497,13 @@
         <v>45352</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F8" s="7">
         <v>0.5</v>
@@ -1538,13 +1541,13 @@
         <v>45352</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F9" s="7">
         <v>0.5</v>
@@ -1582,13 +1585,13 @@
         <v>45352</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>31</v>
-      </c>
       <c r="E10" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7">
         <v>0.5</v>
@@ -1626,10 +1629,10 @@
         <v>45352</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>13</v>
@@ -1670,13 +1673,13 @@
         <v>45352</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F12" s="7">
         <v>0.5</v>
@@ -1714,10 +1717,10 @@
         <v>45352</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>13</v>
@@ -1758,10 +1761,10 @@
         <v>45352</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>13</v>
@@ -1802,13 +1805,13 @@
         <v>45352</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F15" s="7">
         <v>0.5</v>
@@ -1846,13 +1849,13 @@
         <v>45352</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>43</v>
-      </c>
       <c r="E16" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F16" s="7">
         <v>0.5</v>
@@ -1879,7 +1882,8 @@
         <v>2957</v>
       </c>
       <c r="M16" s="12">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
       <c r="N16" s="12"/>
     </row>
@@ -1892,10 +1896,10 @@
         <v>45362</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="15" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>13</v>
@@ -1936,13 +1940,13 @@
         <v>45362</v>
       </c>
       <c r="C18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D18" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="E18" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7">
         <v>0.5</v>
@@ -1969,7 +1973,8 @@
         <v>2910</v>
       </c>
       <c r="M18" s="12">
-        <v>100</v>
+        <f>1/100</f>
+        <v>0.01</v>
       </c>
       <c r="N18" s="12"/>
     </row>
@@ -1982,13 +1987,13 @@
         <v>45358</v>
       </c>
       <c r="C19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="E19" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F19" s="7">
         <v>0.5</v>
@@ -2026,13 +2031,13 @@
         <v>45358</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7">
         <v>0.5</v>
@@ -2059,7 +2064,8 @@
         <v>2863</v>
       </c>
       <c r="M20" s="12">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
       <c r="N20" s="12"/>
     </row>
@@ -2072,13 +2078,13 @@
         <v>45362</v>
       </c>
       <c r="C21" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>52</v>
-      </c>
       <c r="E21" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F21" s="7">
         <v>0.5</v>
@@ -2105,7 +2111,8 @@
         <v>2910</v>
       </c>
       <c r="M21" s="12">
-        <v>50</v>
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N21" s="12"/>
     </row>
@@ -2118,28 +2125,28 @@
         <v>45362</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>55</v>
+        <v>195</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F22" s="7">
         <v>0.5</v>
       </c>
       <c r="G22" s="11" t="str">
         <f t="shared" si="0"/>
-        <v>AW3.45.4.2s (01) - Waterfall Plot Sample.dat</v>
+        <v>AW3.45.4 2s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H22" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>AW3.45.4.2s (01) - Waterfall Plot Blank.dat</v>
+        <v>AW3.45.4 2s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I22" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>AW3.45.4.2s (01) - Abs Spectra Graphs.dat</v>
+        <v>AW3.45.4 2s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J22" s="7">
         <v>1</v>
@@ -2151,7 +2158,8 @@
         <v>2910</v>
       </c>
       <c r="M22" s="12">
-        <v>100</v>
+        <f>1/100</f>
+        <v>0.01</v>
       </c>
       <c r="N22" s="12"/>
     </row>
@@ -2164,10 +2172,10 @@
         <v>45352</v>
       </c>
       <c r="C23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>58</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>13</v>
@@ -2208,10 +2216,10 @@
         <v>45352</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>59</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>13</v>
@@ -2252,13 +2260,13 @@
         <v>45363</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E25" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F25" s="7">
         <v>0.5</v>
@@ -2296,13 +2304,13 @@
         <v>45363</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F26" s="7">
         <v>0.5</v>
@@ -2329,7 +2337,8 @@
         <v>2947</v>
       </c>
       <c r="M26" s="12">
-        <v>50</v>
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N26" s="16"/>
     </row>
@@ -2342,13 +2351,13 @@
         <v>45363</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E27" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F27" s="7">
         <v>0.5</v>
@@ -2386,13 +2395,13 @@
         <v>45363</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F28" s="7">
         <v>0.5</v>
@@ -2419,7 +2428,8 @@
         <v>2947</v>
       </c>
       <c r="M28" s="12">
-        <v>50</v>
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N28" s="16"/>
     </row>
@@ -2432,13 +2442,13 @@
         <v>45363</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F29" s="7">
         <v>0.5</v>
@@ -2465,7 +2475,8 @@
         <v>2947</v>
       </c>
       <c r="M29" s="12">
-        <v>50</v>
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N29" s="16"/>
     </row>
@@ -2478,10 +2489,10 @@
         <v>45363</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>13</v>
@@ -2522,10 +2533,10 @@
         <v>45363</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>13</v>
@@ -2566,13 +2577,13 @@
         <v>45363</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F32" s="7">
         <v>0.5</v>
@@ -2598,8 +2609,9 @@
       <c r="L32" s="7">
         <v>2947</v>
       </c>
-      <c r="M32" s="18">
-        <v>25</v>
+      <c r="M32" s="12">
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N32" s="16"/>
     </row>
@@ -2612,13 +2624,13 @@
         <v>45363</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F33" s="7">
         <v>0.5</v>
@@ -2656,13 +2668,13 @@
         <v>45363</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F34" s="7">
         <v>0.5</v>
@@ -2688,8 +2700,9 @@
       <c r="L34" s="7">
         <v>2947</v>
       </c>
-      <c r="M34" s="18">
-        <v>25</v>
+      <c r="M34" s="12">
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N34" s="16"/>
     </row>
@@ -2702,13 +2715,13 @@
         <v>45363</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F35" s="7">
         <v>0.5</v>
@@ -2746,13 +2759,13 @@
         <v>45363</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F36" s="7">
         <v>0.5</v>
@@ -2778,8 +2791,9 @@
       <c r="L36" s="7">
         <v>2947</v>
       </c>
-      <c r="M36" s="18">
-        <v>25</v>
+      <c r="M36" s="12">
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
       <c r="N36" s="16"/>
     </row>
@@ -2792,10 +2806,10 @@
         <v>45363</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>13</v>
@@ -2836,10 +2850,10 @@
         <v>45363</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>13</v>
@@ -2880,10 +2894,10 @@
         <v>45351</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>13</v>
@@ -2922,28 +2936,28 @@
         <v>45350</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>91</v>
+        <v>186</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F40" s="7">
         <v>0.5</v>
       </c>
       <c r="G40" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>OW1.1.01s (01) - Waterfall Plot Sample.dat</v>
+        <v>OxicW1.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H40" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>OW1.1.01s (01) - Waterfall Plot Blank.dat</v>
+        <v>OxicW1.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I40" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>OW1.1.01s (01) - Abs Spectra Graphs.dat</v>
+        <v>OxicW1.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J40" s="7">
         <v>1</v>
@@ -2965,13 +2979,13 @@
         <v>45351</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F41" s="7">
         <v>0.5</v>
@@ -3008,13 +3022,13 @@
         <v>45351</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F42" s="7">
         <v>0.5</v>
@@ -3051,10 +3065,10 @@
         <v>45351</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>13</v>
@@ -3094,10 +3108,10 @@
         <v>45351</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>13</v>
@@ -3137,13 +3151,13 @@
         <v>45351</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F45" s="7">
         <v>0.5</v>
@@ -3180,10 +3194,10 @@
         <v>45351</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>13</v>
@@ -3223,25 +3237,25 @@
         <v>45352</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F47" s="7">
         <v>0.5</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J47" s="7">
         <v>1</v>
@@ -3263,10 +3277,10 @@
         <v>45352</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>13</v>
@@ -3305,13 +3319,13 @@
         <v>45352</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F49" s="7">
         <v>0.5</v>
@@ -3347,10 +3361,10 @@
         <v>45351</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>13</v>
@@ -3359,10 +3373,10 @@
         <v>0.5</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="H50" s="11" t="str">
-        <f t="shared" si="1"/>
+        <f>CONCATENATE(D50," (01) - Waterfall Plot Blank.dat")</f>
         <v>OW2.45.1s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I50" s="11" t="str">
@@ -3388,10 +3402,10 @@
         <v>45352</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>13</v>
@@ -3430,10 +3444,10 @@
         <v>45352</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>13</v>
@@ -3472,10 +3486,10 @@
         <v>45362</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>13</v>
@@ -3514,13 +3528,13 @@
         <v>45362</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F54" s="7">
         <v>0.5</v>
@@ -3546,8 +3560,9 @@
       <c r="L54" s="7">
         <v>2910</v>
       </c>
-      <c r="M54" s="19">
-        <v>50</v>
+      <c r="M54" s="12">
+        <f>1/50</f>
+        <v>0.02</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
@@ -3559,13 +3574,13 @@
         <v>45362</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F55" s="7">
         <v>0.5</v>
@@ -3601,13 +3616,13 @@
         <v>45362</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F56" s="7">
         <v>0.5</v>
@@ -3634,7 +3649,8 @@
         <v>2910</v>
       </c>
       <c r="M56" s="19">
-        <v>100</v>
+        <f>1/100</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
@@ -3646,13 +3662,13 @@
         <v>45362</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F57" s="7">
         <v>0.5</v>
@@ -3688,13 +3704,13 @@
         <v>45362</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F58" s="7">
         <v>0.5</v>
@@ -3730,13 +3746,13 @@
         <v>45363</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F59" s="7">
         <v>0.5</v>
@@ -3772,13 +3788,13 @@
         <v>45363</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F60" s="7">
         <v>0.5</v>
@@ -3805,7 +3821,8 @@
         <v>2947</v>
       </c>
       <c r="M60" s="19">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -3817,13 +3834,13 @@
         <v>45363</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F61" s="7">
         <v>0.5</v>
@@ -3850,7 +3867,8 @@
         <v>2947</v>
       </c>
       <c r="M61" s="19">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
@@ -3862,13 +3880,13 @@
         <v>45363</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F62" s="7">
         <v>0.5</v>
@@ -3904,13 +3922,13 @@
         <v>45363</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F63" s="7">
         <v>0.5</v>
@@ -3937,7 +3955,8 @@
         <v>2947</v>
       </c>
       <c r="M63" s="19">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
@@ -3949,10 +3968,10 @@
         <v>45363</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>13</v>
@@ -3991,10 +4010,10 @@
         <v>45363</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>13</v>
@@ -4004,15 +4023,15 @@
       </c>
       <c r="G65" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>OW4.DI.1s (01) - Waterfall Plot Sample.dat</v>
+        <v>OW4.DI (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H65" s="11" t="str">
         <f t="shared" si="1"/>
-        <v>OW4.DI.1s (01) - Waterfall Plot Blank.dat</v>
+        <v>OW4.DI (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I65" s="11" t="str">
         <f t="shared" si="2"/>
-        <v>OW4.DI.1s (01) - Abs Spectra Graphs.dat</v>
+        <v>OW4.DI (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J65" s="7">
         <v>1</v>
@@ -4033,27 +4052,27 @@
         <v>45363</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F66" s="7">
         <v>0.5</v>
       </c>
       <c r="G66" s="10" t="str">
-        <f t="shared" ref="G66:G90" si="5">CONCATENATE(D66," (01) - Waterfall Plot Sample.dat")</f>
+        <f t="shared" ref="G66:G91" si="5">CONCATENATE(D66," (01) - Waterfall Plot Sample.dat")</f>
         <v>OW5.01.1.01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H66" s="11" t="str">
-        <f t="shared" ref="H66:H90" si="6">CONCATENATE(D66," (01) - Waterfall Plot Blank.dat")</f>
+        <f t="shared" ref="H66:H91" si="6">CONCATENATE(D66," (01) - Waterfall Plot Blank.dat")</f>
         <v>OW5.01.1.01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I66" s="11" t="str">
-        <f t="shared" ref="I66:I90" si="7">CONCATENATE(D66," (01) - Abs Spectra Graphs.dat")</f>
+        <f t="shared" ref="I66:I91" si="7">CONCATENATE(D66," (01) - Abs Spectra Graphs.dat")</f>
         <v>OW5.01.1.01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J66" s="7">
@@ -4075,13 +4094,13 @@
         <v>45363</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F67" s="7">
         <v>0.5</v>
@@ -4108,7 +4127,8 @@
         <v>2947</v>
       </c>
       <c r="M67" s="19">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
@@ -4120,13 +4140,13 @@
         <v>45363</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F68" s="7">
         <v>0.5</v>
@@ -4162,13 +4182,13 @@
         <v>45363</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F69" s="7">
         <v>0.5</v>
@@ -4195,7 +4215,8 @@
         <v>2947</v>
       </c>
       <c r="M69" s="19">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
@@ -4207,13 +4228,13 @@
         <v>45363</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F70" s="7">
         <v>0.5</v>
@@ -4249,13 +4270,13 @@
         <v>45363</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E71" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F71" s="7">
         <v>0.5</v>
@@ -4282,7 +4303,8 @@
         <v>2947</v>
       </c>
       <c r="M71" s="19">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
@@ -4294,10 +4316,10 @@
         <v>45363</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>13</v>
@@ -4336,10 +4358,10 @@
         <v>45363</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>13</v>
@@ -4378,13 +4400,13 @@
         <v>45350</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E74" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F74" s="7">
         <v>0.5</v>
@@ -4420,28 +4442,28 @@
         <v>45362</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="E75" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F75" s="7">
         <v>0.5</v>
       </c>
       <c r="G75" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>PosT11Mar01s (01) - Waterfall Plot Sample.dat</v>
+        <v>PosT01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H75" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>PosT11Mar01s (01) - Waterfall Plot Blank.dat</v>
+        <v>PosT01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I75" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>PosT11Mar01s (01) - Abs Spectra Graphs.dat</v>
+        <v>PosT01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J75" s="7">
         <v>1</v>
@@ -4462,25 +4484,25 @@
         <v>45363</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="E76" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F76" s="7">
         <v>0.5</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="J76" s="7">
         <v>1</v>
@@ -4501,28 +4523,27 @@
         <v>45352</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="E77" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F77" s="7">
         <v>0.5</v>
       </c>
-      <c r="G77" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>PosT01Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      <c r="G77" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="H77" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>PosT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PoT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I77" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>PosT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
+        <v>PoT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J77" s="7">
         <v>1</v>
@@ -4543,28 +4564,28 @@
         <v>45351</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="E78" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F78" s="7">
         <v>0.5</v>
       </c>
       <c r="G78" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>PosT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
+        <v>PoT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H78" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>PosT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PoT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I78" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>PosT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
+        <v>PoT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J78" s="7">
         <v>1</v>
@@ -4585,28 +4606,27 @@
         <v>45352</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="E79" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F79" s="7">
         <v>0.5</v>
       </c>
-      <c r="G79" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>PreT01Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      <c r="G79" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="H79" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>PreT01Mar2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PreT01Mar201s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I79" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>PreT01Mar2401s (01) - Abs Spectra Graphs.dat</v>
+        <v>PreT01Mar201s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J79" s="7">
         <v>1</v>
@@ -4627,28 +4647,27 @@
         <v>45358</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="E80" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F80" s="7">
         <v>0.5</v>
       </c>
-      <c r="G80" s="10" t="str">
-        <f t="shared" si="5"/>
-        <v>PreT07Mar2401s (01) - Waterfall Plot Sample.dat</v>
+      <c r="G80" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="H80" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>PreT07Mar2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PreT07Mar2401 (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I80" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>PreT07Mar2401s (01) - Abs Spectra Graphs.dat</v>
+        <v>PreT07Mar2401 (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J80" s="7">
         <v>1</v>
@@ -4669,28 +4688,28 @@
         <v>45362</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="E81" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F81" s="7">
         <v>0.5</v>
       </c>
       <c r="G81" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>PreT11Mar2401s (01) - Waterfall Plot Sample.dat</v>
+        <v>PreT01s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H81" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>PreT11Mar2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PreT01s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I81" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>PreT11Mar2401s (01) - Abs Spectra Graphs.dat</v>
+        <v>PreT01s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J81" s="7">
         <v>1</v>
@@ -4711,25 +4730,25 @@
         <v>45363</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="E82" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F82" s="7">
         <v>0.5</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="H82" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="J82" s="7">
         <v>1</v>
@@ -4750,10 +4769,10 @@
         <v>45350</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>13</v>
@@ -4792,28 +4811,28 @@
         <v>45351</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E84" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F84" s="7">
         <v>0.5</v>
       </c>
       <c r="G84" s="10" t="str">
         <f t="shared" si="5"/>
-        <v>PreT29Feb2401s (01) - Waterfall Plot Sample.dat</v>
+        <v>PreT29Feb201s (01) - Waterfall Plot Sample.dat</v>
       </c>
       <c r="H84" s="11" t="str">
         <f t="shared" si="6"/>
-        <v>PreT29Feb2401s (01) - Waterfall Plot Blank.dat</v>
+        <v>PreT29Feb201s (01) - Waterfall Plot Blank.dat</v>
       </c>
       <c r="I84" s="11" t="str">
         <f t="shared" si="7"/>
-        <v>PreT29Feb2401s (01) - Abs Spectra Graphs.dat</v>
+        <v>PreT29Feb201s (01) - Abs Spectra Graphs.dat</v>
       </c>
       <c r="J84" s="7">
         <v>1</v>
@@ -4834,13 +4853,13 @@
         <v>45362</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="E85" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F85" s="7">
         <v>0.5</v>
@@ -4876,13 +4895,13 @@
         <v>45362</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="E86" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F86" s="7">
         <v>0.5</v>
@@ -4909,7 +4928,8 @@
         <v>2910</v>
       </c>
       <c r="M86" s="19">
-        <v>100</v>
+        <f>1/100</f>
+        <v>0.01</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
@@ -4921,13 +4941,13 @@
         <v>45379</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="E87" s="15" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F87" s="7">
         <v>0.5</v>
@@ -4963,13 +4983,13 @@
         <v>45379</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F88" s="7">
         <v>0.5</v>
@@ -5005,13 +5025,13 @@
         <v>45379</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="F89" s="7">
         <v>0.5</v>
@@ -5047,13 +5067,13 @@
         <v>45379</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="F90" s="7">
         <v>0.5</v>
@@ -5080,7 +5100,49 @@
         <v>3035.02</v>
       </c>
       <c r="M90" s="19">
-        <v>25</v>
+        <f>1/25</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A91" s="7">
+        <v>91</v>
+      </c>
+      <c r="B91" s="8">
+        <v>45350</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" s="7">
+        <v>1</v>
+      </c>
+      <c r="G91" s="10" t="str">
+        <f t="shared" si="5"/>
+        <v>OW.1.1.01s (01) - Waterfall Plot Sample.dat</v>
+      </c>
+      <c r="H91" s="10" t="str">
+        <f t="shared" si="6"/>
+        <v>OW.1.1.01s (01) - Waterfall Plot Blank.dat</v>
+      </c>
+      <c r="I91" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>OW.1.1.01s (01) - Abs Spectra Graphs.dat</v>
+      </c>
+      <c r="J91" s="7">
+        <v>1</v>
+      </c>
+      <c r="K91" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="L91" s="7">
+        <v>2971</v>
       </c>
     </row>
   </sheetData>
@@ -5125,15 +5187,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="5cece13e-3376-4417-9525-be60b11a89a8" xsi:nil="true"/>
@@ -5142,6 +5195,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5379,14 +5441,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1309EEDC-9234-46B2-B888-2F9B557CB205}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60DD3054-511E-4DB0-B69C-E2D771CDD0AA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -5400,6 +5454,14 @@
     <ds:schemaRef ds:uri="03570766-e33a-4164-8943-6d32a7ac417a"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1309EEDC-9234-46B2-B888-2F9B557CB205}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
